--- a/medicine/Maladies infectieuses/Chronologie_de_la_pandémie_de_Covid-19_au_Québec/Chronologie_de_la_pandémie_de_Covid-19_au_Québec.xlsx
+++ b/medicine/Maladies infectieuses/Chronologie_de_la_pandémie_de_Covid-19_au_Québec/Chronologie_de_la_pandémie_de_Covid-19_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article relate la chronologie de la pandémie de Covid-19 au Québec et offre une vue détaillée et chronologique de l'évolution de la pandémie de Covid-19 au Québec. Depuis le début de la crise sanitaire, cet article documente les événements majeurs, les dates clés, et les mesures prises pour contrôler la propagation du virus. Il sert de référence pour comprendre l'impact de la pandémie et la réponse du Québec face à cette crise sans précédent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,385 +525,1074 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019
-Novembre : première éclosion de Covid-19 à Wuhan en Chine.
-2020
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Novembre : première éclosion de Covid-19 à Wuhan en Chine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dates importantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dates importantes 2020
-27 février : premier cas déclaré de Covid-19 au Québec[1]
-13 mars : urgence sanitaire (fermeture écoles et garderies)[2]
-21 mars : fermeture des frontières avec les États-Unis[3]
-22 mars : premier confinement: fermeture des restaurants, salons de coiffure, etc.[4]
-7 avril : 10 000 cas au Québec[1]
-16 avril : 1 000 décès au Québec[1]
+27 février : premier cas déclaré de Covid-19 au Québec
+13 mars : urgence sanitaire (fermeture écoles et garderies)
+21 mars : fermeture des frontières avec les États-Unis
+22 mars : premier confinement: fermeture des restaurants, salons de coiffure, etc.
+7 avril : 10 000 cas au Québec
+16 avril : 1 000 décès au Québec
 20 avril : arrivée des militaires pour prêter main-forte dans les CHSLD
-4 mai : ouverture des magasins hors de Montréal[5]
-11 mai : ouverture garderies et écoles primaires hors de Montréal[6]
+4 mai : ouverture des magasins hors de Montréal
+11 mai : ouverture garderies et écoles primaires hors de Montréal
 12 mai : apogée du nombre d'hospitalisations de la 1re vague (1 672)
-25 mai : ouverture des magasins à Montréal[7]
-28 mai : 5 000 décès au Québec[1]
+25 mai : ouverture des magasins à Montréal
+28 mai : 5 000 décès au Québec
 1er juin :
-ouverture des garderies à Montréal[8]
-ouverture des centres d'achats et services de soins personnels hors de Montréal[9]
-15 juin : ouverture des restaurants hors de Montréal[10]
-25 juin : déconfinement[11]
-18 juillet : port du masque obligatoire dans les lieux publics intérieurs[12]
-2 septembre : début de la deuxième vague[13]
-8 septembre : mise en place du système régional de paliers d'alertes[14]
-1er octobre : début du défi 28 jours[15]
-25 octobre : 100 000 cas au Québec[16]
-9 novembre : premiers résultats des essais cliniques phase 3 (Pfizer) contre la Covid-19[17]
+ouverture des garderies à Montréal
+ouverture des centres d'achats et services de soins personnels hors de Montréal
+15 juin : ouverture des restaurants hors de Montréal
+25 juin : déconfinement
+18 juillet : port du masque obligatoire dans les lieux publics intérieurs
+2 septembre : début de la deuxième vague
+8 septembre : mise en place du système régional de paliers d'alertes
+1er octobre : début du défi 28 jours
+25 octobre : 100 000 cas au Québec
+9 novembre : premiers résultats des essais cliniques phase 3 (Pfizer) contre la Covid-19
 3 décembre : le gouvernement annonce l'interdiction de tenir des rassemblements de famille pour la période des fêtes
 14 décembre : début de la campagne de vaccination
 16 décembre : deuxième confinement du 25 décembre 2020 au 11 janvier 2021, seuls les services essentiels sont autorisés
-29 décembre : 200 000 cas au Québec[1], premier cas de variant Alpha identifié au Québec[18]
-2021
+29 décembre : 200 000 cas au Québec, premier cas de variant Alpha identifié au Québec
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dates importantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dates importantes 2021
 6 janvier :  nombre maximal de cas de la deuxième vague (2 870 cas)
-9 janvier : couvre-feu à 20 h jusqu'au 8 février[19], et report d'une semaine de l'ouverture des écoles secondaires.
+9 janvier : couvre-feu à 20 h jusqu'au 8 février, et report d'une semaine de l'ouverture des écoles secondaires.
 13 janvier : apogée du nombre d'hospitalisations de la 2e vague (1 293)
-2 février : couvre-feu étendu jusqu'au 22 février 2021. Certaines régions passeront en zone orange à partir du 8 février[20].
-7 février : 10 000 décès causés par la Covid-19 au Québec depuis le début de la pandémie, au 1er rang de la fédération canadienne à ce chapitre[21].
-29 mars : début de la troisième vague[22],[23]
+2 février : couvre-feu étendu jusqu'au 22 février 2021. Certaines régions passeront en zone orange à partir du 8 février.
+7 février : 10 000 décès causés par la Covid-19 au Québec depuis le début de la pandémie, au 1er rang de la fédération canadienne à ce chapitre.
+29 mars : début de la troisième vague,
 9 avril : nombre maximal de cas de la troisième vague (1 866 cas)
 20 avril : apogée du nombre d'hospitalisations de la 3e vague (716)
-21 avril : premier cas du variant Delta au Québec[24]
-29 avril : 3 millions de doses de vaccin administrées au Québec[25]
-18 mai : 50 % de la population du Québec vaccinée (première dose)[1]
-3 juin : 75 % de la population du Québec vaccinée (première dose)[1]
-28 juin : toutes les régions passent au palier vert[26]
-12 juillet : la règle de distanciation passe de 2 à 1 mètre[27]
-17 juillet : fin de la troisième vague[1]
-18 juillet : début de la quatrième vague[1]
-1er août : vente d'alcool permis jusqu'à 1 h du matin et rehaussement de la limite du nombre de personnes pour les événements[28]
-28 août : le délai d'isolation pour les cas positifs passe de 14 à 10 jours[29]
-1er septembre : mise en place du passeport vaccinal[30]
-30 septembre : 75 % de l'ensemble de la population du Québec est adéquatement vaccinée[1]
-8 octobre : retour à la pleine capacité dans les salles de spectacle[31]
-30 octobre : date limite pour la vaccination des employés du gouvernement du Canada et des employés ddes secteurs sous réglementation fédérale[32]
-1er novembre : retrait de la limite de capacité dans les bars et restaurants[33]
-15 novembre : retour de la danse et du karaoké dans les bars[34]
-24 novembre : début de la vaccination des 5 à 11 ans[35]
-29 novembre : confirmation du premier cas du variant Omicron au Québec[36]
-5 décembre : début de la 5e vague[37]
-26 décembre : rassemblement privé limité à 6 personnes[38]
-31 décembre : début du couvre-feu à 22 h[39]
-2022
-10 janvier : démission d'Horacio Arruda, directeur national de santé publique[40]
+21 avril : premier cas du variant Delta au Québec
+29 avril : 3 millions de doses de vaccin administrées au Québec
+18 mai : 50 % de la population du Québec vaccinée (première dose)
+3 juin : 75 % de la population du Québec vaccinée (première dose)
+28 juin : toutes les régions passent au palier vert
+12 juillet : la règle de distanciation passe de 2 à 1 mètre
+17 juillet : fin de la troisième vague
+18 juillet : début de la quatrième vague
+1er août : vente d'alcool permis jusqu'à 1 h du matin et rehaussement de la limite du nombre de personnes pour les événements
+28 août : le délai d'isolation pour les cas positifs passe de 14 à 10 jours
+1er septembre : mise en place du passeport vaccinal
+30 septembre : 75 % de l'ensemble de la population du Québec est adéquatement vaccinée
+8 octobre : retour à la pleine capacité dans les salles de spectacle
+30 octobre : date limite pour la vaccination des employés du gouvernement du Canada et des employés ddes secteurs sous réglementation fédérale
+1er novembre : retrait de la limite de capacité dans les bars et restaurants
+15 novembre : retour de la danse et du karaoké dans les bars
+24 novembre : début de la vaccination des 5 à 11 ans
+29 novembre : confirmation du premier cas du variant Omicron au Québec
+5 décembre : début de la 5e vague
+26 décembre : rassemblement privé limité à 6 personnes
+31 décembre : début du couvre-feu à 22 h
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dates importantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10 janvier : démission d'Horacio Arruda, directeur national de santé publique
 17 janvier : fin du couvre-feu
-30 mars : début de la 6e vague[41]
-14 mai : fin du port du masque obligatoire (sauf dans les transports en commun et les établissements de santé)[42]
+30 mars : début de la 6e vague
+14 mai : fin du port du masque obligatoire (sauf dans les transports en commun et les établissements de santé)
 18 juin : fin du port du masque obligatoire dans les transports en commun</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Février à décembre 2020
 Février
-Le 27 février 2020, un premier cas est détecté au Québec et officiellement confirmé le lendemain. Il s'agit d'une femme de 41 ans originaire de Montréal, revenue d'Iran le 24 février sur un vol en provenance de Doha, au Qatar[43],[44],[45]. Elle est transférée le 3 mars à l'Hôpital général juif, duquel elle sort le lendemain[46],[47].
+Le 27 février 2020, un premier cas est détecté au Québec et officiellement confirmé le lendemain. Il s'agit d'une femme de 41 ans originaire de Montréal, revenue d'Iran le 24 février sur un vol en provenance de Doha, au Qatar. Elle est transférée le 3 mars à l'Hôpital général juif, duquel elle sort le lendemain,.
 Mars
-Le 5 mars, le ministère de la Santé et des Services sociaux annonce un deuxième cas présumé impliquant un homme de 70 ans qui s'était rendu en Inde du 4 au 20 février. Il est d'abord traité à l'hôpital de Mont-Laurier pour des symptômes similaires à la Covid-19. Le 4 mars, la personne est transférée à l'Hôpital général juif, où elle reçoit un diagnostic de pneumonie[48]. Quelques heures plus tard, un troisième cas présumé est confirmé, impliquant une femme rentrée de France le 3 mars[49],[50]. La personne infectée est par la suite prise en charge dans un centre hospitalier de la Montérégie. Le deuxième cas est confirmé 4 jours plus tard, le 7 mars 2020[51].
-Le 8 mars, un quatrième cas est confirmé. Il s'agit d'une femme de la Montérégie (Longueuil) qui venait de rentrer d'une croisière[52]. Cette personne est déclarée positive le 10 mars, date à laquelle la santé publique du Québec confirme en conférence de presse, que ladite personne avait pris les transports en commun à Montréal entre le 24 février et le 6 mars, passant par les stations de métro Berri-UQAM, Champ-de-Mars, en plus de l'autobus sur la ligne 88 du Réseau de transport de Longueuil[53],[54]. Le premier ministre François Legault qualifie initialement la menace posée par le virus de « faible »[55].
-Le 10 mars, la santé publique annonce qu'un cinquième cas potentiel est signalé à Montréal. Il s'agit d'un homme revenu d'Irlande le 5 mars[56]. Ce cas potentiel est confirmé le lendemain[57].
-Le 11 mars, l'Organisation mondiale de la santé (OMS) déclare officiellement que la maladie à coronavirus (COVID-19) peut être qualifiée de pandémie[58]. Le même jour, le premier ministre du Québec, François Legault, recommande d'imposer une quarantaine volontaire de 14 jours à tous les étudiants et professeurs revenant de voyages scolaires dans des pays fortement touchés par la pandémie, comme la Chine et l'Italie, et déconseille de voyager dans ces pays[59]. Plus tard dans la journée, le personnel et les élèves de plusieurs écoles où ces derniers revenaient d'Italie sont invités à demeurer chez eux[60],[61],[62]. Le Collège international Marie de France suspend ses cours du lycée à cause d'un cas suspecté de Covid-19[63]. Cinq nouveaux cas sont confirmés, portant le total à sept au Québec. Outre le cinquième cas, celui revenu d'Irlande le 5 mars, le sixième malade revenait d'une croisière aux Caraïbes et à Miami. Il est pris en charge à l'Hôpital général juif de Montréal. Le septième cas a pour sa part voyagé en République dominicaine[57]. Le huitième cas est une personne ayant voyagé en France et qui avait consulté un centre hospitalier de la Mauricie[64]. Un neuvième cas est par la suite confirmé, il s'agit du premier cas détecté en Estrie: une personne ayant visité l'Italie[64],[65].
-Le 12 mars, le premier ministre annonce que la province prend des mesures plus strictes pour contrôler la propagation du virus, notamment une interdiction des rassemblements intérieurs de plus de 250 personnes, une incitation aux personnes qui reviennent de voyages internationaux à s'isoler volontairement pendant une période de 14 jours et un isolement obligatoire pour les employés de l'État, les travailleurs de l'éducation et les professionnels de la santé[66]. Un conseil similaire est émis à l'égard des Québécois qui présentent des symptômes similaires à la grippe et qui reviennent de voyage[67].
-Le 13 mars, un grand nombre d'annulations et de fermetures préventives ont lieu à travers la province : défilés de la Saint-Patrick à Montréal et à Québec (celui de Montréal n'avait jamais été annulé en 196 ans)[68],[69], tous les événements publics de la Coalition avenir Québec[70], tous les concerts de l'Orchestre symphonique de Montréal prévus jusqu'au 5 avril (y compris une représentation prévue au Carnegie Hall de New York) et tous les événements du Grand Théâtre de Québec jusqu'au 29 mars[71]. La mairesse de Montréal, Valérie Plante, annonce la fermeture des installations publiques à compter du 13 mars, tels que les arénas, les bibliothèques, les installations sportives, ainsi que les musées d'Espace pour la vie[72]. Toujours le 13 mars, l'adoption d'un décret par le gouvernement du Québec déclenche l'état d'urgence sanitaire, conformément à la Loi sur la santé publique, pour une période de 10 jours[2]. Tous les établissements scolaires primaires, secondaires, collégiaux et universitaires, ainsi que les centres de la petite enfance et les garderies sont fermés pendant deux semaines, soit du 16 au 30 mars[73]. La Santé publique souligne que tous les cas confirmés à ce jour concernent des personnes qui reviennent de voyage ou qui ont été en contact étroit avec des personnes revenant de voyage, et que la propagation dans la communauté n'est pas encore prouvée[74].
-Le 14 mars, François Legault annonce que le Québec interdit les visites dans les établissements de soins de longue durée et les hôpitaux, et conseille aux personnes de 70 ans et plus d'éviter de quitter leur domicile[75]. Plus tard dans la journée, le gouvernement annonce qu'il offrira des services de garde d'enfants gratuits aux personnes travaillant dans les services essentiels, avec jusqu'à 60 000 places disponibles, en utilisant les 400 écoles fermées par le gouvernement[76]. Le soir du 14 mars, la Ville de Montréal annonce l'envoi d'employés à l'aéroport international Pierre-Elliott-Trudeau de Montréal pour conseiller les voyageurs arrivant de destinations internationales à se mettre en quarantaine pendant 14 jours, devant l'inaction du gouvernement fédéral, responsable de l'aéroport[77].
-Le 15 mars, le premier ministre Legault annonce de nouvelles restrictions, qui forcent la fermeture de divers lieux de loisirs et de divertissement, notamment des bars, des cinémas, des gymnases, des piscines et des pistes de ski. Les restaurants sont également contraints de réduire leur capacité de moitié et à imposer une distanciation sociale[78],[79]. Le ministère des Affaires municipales et de l'Habitation demande le report de 29 élections partielles[80] ainsi que la limitation de l'accès aux lieux publics[81]. La ministre de la Justice Sonia LeBel annonce la suspension de certains délais légaux de même qu'un accès restreint aux palais de justice[82].
-Le 16 mars, le gouvernement fédéral annonce que la frontière fédérale serait fermée à tous, sauf aux citoyens canadiens et aux membres de leur famille immédiate, aux résidents permanents, aux citoyens américains, aux équipages de conduite et aux diplomates. De plus, au Québec, les vols internationaux sont limités à l'atterrissage à l'aéroport international Montréal-Trudeau[83]. La fermeture sera effective dans la nuit du 20 mars au 21 mars[3].
-Le 17 mars, le gouvernement repousse jusqu'au 1er juin la date limite pour produire le rapport d'impôt 2019[84].
-Le 18 mars, le Québec connait son premier décès attribuable à la Covid-19. Il s'agit d'une personne âgée de la région de Lanaudière qui avait côtoyé une personne de retour de l'étranger[85].
-À partir du 19 mars, les résidents du Québec en isolement ou en quarantaine qui ne sont couverts par aucune prestation peuvent demander 573 $ par semaine d'aide financière[86]. Le gouvernement annonce également qu'il injecte 2,5 milliards de dollars dans les entreprises souffrant de problèmes de liquidité en raison de la crise Covid-19[87]. Il demande également aux Québécois de ne pas voyager entre les régions. La Sûreté du Québec lance une opération spéciale dans l’ensemble de la province pour « sensibiliser » les citoyens au respect des directives de la Loi sur la santé publique[88]. La Ville de Montréal annonce qu'elle prolonge son échéance fiscale et dévoile un fond d'urgence de 5 millions de dollars pour soutenir les petites et moyennes entreprises[89].
-Le 20 mars, le gouvernement du Québec interdit les rassemblements intérieurs et impose de maintenir une distance de deux mètres en tout temps lors des rassemblements extérieurs, avec certaines exceptions, dont entre les occupants d'une résidence privée[90].
-21 mars, fermeture des frontières avec les États-Unis[3].
-Le 22 mars, le gouvernement du Québec ordonne la fermeture, à compter de minuit, des centres commerciaux, des salles à manger des restaurants, des salons de coiffure et d’esthétique jusqu’au 1er mai, et prolonge la fermeture des écoles et des services de garde jusqu’à cette date[4]. Quatre personnes habitant une résidence pour personnes âgées à Lavaltrie, dans Lanaudière, décèdent de la Covid-19[91]. Un arrêté signé par la ministre de la Santé et des Services sociaux, Danielle McCann, permet au gouvernement de redéployer les fonctionnaires « dans une autre fonction ou dans un autre lieu, selon les besoins » pour s’assurer que le réseau ait les ressources humaines nécessaires dans les circonstances[92].
-Le 23 mars, le gouvernement québécois annonce la fermeture de toutes les entreprises et commerces non essentiels jusqu'au 13 avril[93], c'est le début du premier confinement. La SAQ et la SQDC sont dans la liste des commerces offrant un service essentiel, ce qui étonne certains observateurs[94], dont les syndicats des employés de ces sociétés d'État québécoises[95].
-Le Guide autosoins pour la maladie à coronavirus (COVID-19)[96], qui donne les lignes directrices pour se protéger, se soigner ou soigner les autres, est lancé[97]. Une version papier est distribuée par la poste aux Québécois au mois d'avril.
-Le 28 mars, le gouvernement du Québec annonce qu'il met en place des barrages routiers pour restreindre l'accès à 8 régions du Québec aux seuls services essentiels, à partir de 16 h le jour même[98]. Obligation pour les pharmaciens de ne pas délivrer la chloroquine et l'hydroxychloroquine pour la Covid-19, ces médicaments étant réservés aux personnes atteintes de lupus érythémateux disséminé et d’arthrite juvénile idiopathique, ainsi qu'aux femmes enceintes à risque de rechute[99]. Mise en quarantaine de la communauté juive hassidique de Kiryas Tosh, à Boisbriand, après que de nombreux membres de la communauté aient été testés positivement à la Covid-19[100].
-Le 29 mars, Québec annonce qu'il commande 300 000 visières à la compagnie Bauer pour approvisionner le personnel du réseau de la santé[101], et fournit une aide d’urgence de 133 millions de dollars aux institutions qui hébergent ou accueillent des personnes aînées ou des clientèles avec des besoins spécifiques[102]. Un autre fabricant d'équipement de hockey au Québec, l’usine d’équipement de hockey d’élite de CCM à Saint-Jean-sur-Richelieu, a commencé à développer un prototype de masque 10 fois plus performant que les N95[103].
-Le 31 mars, François Legault annonce lors de sa conférence de presse que le Québec ne dispose que de trois à sept jours d'équipement de protection individuelle[104].
+Le 5 mars, le ministère de la Santé et des Services sociaux annonce un deuxième cas présumé impliquant un homme de 70 ans qui s'était rendu en Inde du 4 au 20 février. Il est d'abord traité à l'hôpital de Mont-Laurier pour des symptômes similaires à la Covid-19. Le 4 mars, la personne est transférée à l'Hôpital général juif, où elle reçoit un diagnostic de pneumonie. Quelques heures plus tard, un troisième cas présumé est confirmé, impliquant une femme rentrée de France le 3 mars,. La personne infectée est par la suite prise en charge dans un centre hospitalier de la Montérégie. Le deuxième cas est confirmé 4 jours plus tard, le 7 mars 2020.
+Le 8 mars, un quatrième cas est confirmé. Il s'agit d'une femme de la Montérégie (Longueuil) qui venait de rentrer d'une croisière. Cette personne est déclarée positive le 10 mars, date à laquelle la santé publique du Québec confirme en conférence de presse, que ladite personne avait pris les transports en commun à Montréal entre le 24 février et le 6 mars, passant par les stations de métro Berri-UQAM, Champ-de-Mars, en plus de l'autobus sur la ligne 88 du Réseau de transport de Longueuil,. Le premier ministre François Legault qualifie initialement la menace posée par le virus de « faible ».
+Le 10 mars, la santé publique annonce qu'un cinquième cas potentiel est signalé à Montréal. Il s'agit d'un homme revenu d'Irlande le 5 mars. Ce cas potentiel est confirmé le lendemain.
+Le 11 mars, l'Organisation mondiale de la santé (OMS) déclare officiellement que la maladie à coronavirus (COVID-19) peut être qualifiée de pandémie. Le même jour, le premier ministre du Québec, François Legault, recommande d'imposer une quarantaine volontaire de 14 jours à tous les étudiants et professeurs revenant de voyages scolaires dans des pays fortement touchés par la pandémie, comme la Chine et l'Italie, et déconseille de voyager dans ces pays. Plus tard dans la journée, le personnel et les élèves de plusieurs écoles où ces derniers revenaient d'Italie sont invités à demeurer chez eux. Le Collège international Marie de France suspend ses cours du lycée à cause d'un cas suspecté de Covid-19. Cinq nouveaux cas sont confirmés, portant le total à sept au Québec. Outre le cinquième cas, celui revenu d'Irlande le 5 mars, le sixième malade revenait d'une croisière aux Caraïbes et à Miami. Il est pris en charge à l'Hôpital général juif de Montréal. Le septième cas a pour sa part voyagé en République dominicaine. Le huitième cas est une personne ayant voyagé en France et qui avait consulté un centre hospitalier de la Mauricie. Un neuvième cas est par la suite confirmé, il s'agit du premier cas détecté en Estrie: une personne ayant visité l'Italie,.
+Le 12 mars, le premier ministre annonce que la province prend des mesures plus strictes pour contrôler la propagation du virus, notamment une interdiction des rassemblements intérieurs de plus de 250 personnes, une incitation aux personnes qui reviennent de voyages internationaux à s'isoler volontairement pendant une période de 14 jours et un isolement obligatoire pour les employés de l'État, les travailleurs de l'éducation et les professionnels de la santé. Un conseil similaire est émis à l'égard des Québécois qui présentent des symptômes similaires à la grippe et qui reviennent de voyage.
+Le 13 mars, un grand nombre d'annulations et de fermetures préventives ont lieu à travers la province : défilés de la Saint-Patrick à Montréal et à Québec (celui de Montréal n'avait jamais été annulé en 196 ans) tous les événements publics de la Coalition avenir Québec, tous les concerts de l'Orchestre symphonique de Montréal prévus jusqu'au 5 avril (y compris une représentation prévue au Carnegie Hall de New York) et tous les événements du Grand Théâtre de Québec jusqu'au 29 mars. La mairesse de Montréal, Valérie Plante, annonce la fermeture des installations publiques à compter du 13 mars, tels que les arénas, les bibliothèques, les installations sportives, ainsi que les musées d'Espace pour la vie. Toujours le 13 mars, l'adoption d'un décret par le gouvernement du Québec déclenche l'état d'urgence sanitaire, conformément à la Loi sur la santé publique, pour une période de 10 jours. Tous les établissements scolaires primaires, secondaires, collégiaux et universitaires, ainsi que les centres de la petite enfance et les garderies sont fermés pendant deux semaines, soit du 16 au 30 mars. La Santé publique souligne que tous les cas confirmés à ce jour concernent des personnes qui reviennent de voyage ou qui ont été en contact étroit avec des personnes revenant de voyage, et que la propagation dans la communauté n'est pas encore prouvée.
+Le 14 mars, François Legault annonce que le Québec interdit les visites dans les établissements de soins de longue durée et les hôpitaux, et conseille aux personnes de 70 ans et plus d'éviter de quitter leur domicile. Plus tard dans la journée, le gouvernement annonce qu'il offrira des services de garde d'enfants gratuits aux personnes travaillant dans les services essentiels, avec jusqu'à 60 000 places disponibles, en utilisant les 400 écoles fermées par le gouvernement. Le soir du 14 mars, la Ville de Montréal annonce l'envoi d'employés à l'aéroport international Pierre-Elliott-Trudeau de Montréal pour conseiller les voyageurs arrivant de destinations internationales à se mettre en quarantaine pendant 14 jours, devant l'inaction du gouvernement fédéral, responsable de l'aéroport.
+Le 15 mars, le premier ministre Legault annonce de nouvelles restrictions, qui forcent la fermeture de divers lieux de loisirs et de divertissement, notamment des bars, des cinémas, des gymnases, des piscines et des pistes de ski. Les restaurants sont également contraints de réduire leur capacité de moitié et à imposer une distanciation sociale,. Le ministère des Affaires municipales et de l'Habitation demande le report de 29 élections partielles ainsi que la limitation de l'accès aux lieux publics. La ministre de la Justice Sonia LeBel annonce la suspension de certains délais légaux de même qu'un accès restreint aux palais de justice.
+Le 16 mars, le gouvernement fédéral annonce que la frontière fédérale serait fermée à tous, sauf aux citoyens canadiens et aux membres de leur famille immédiate, aux résidents permanents, aux citoyens américains, aux équipages de conduite et aux diplomates. De plus, au Québec, les vols internationaux sont limités à l'atterrissage à l'aéroport international Montréal-Trudeau. La fermeture sera effective dans la nuit du 20 mars au 21 mars.
+Le 17 mars, le gouvernement repousse jusqu'au 1er juin la date limite pour produire le rapport d'impôt 2019.
+Le 18 mars, le Québec connait son premier décès attribuable à la Covid-19. Il s'agit d'une personne âgée de la région de Lanaudière qui avait côtoyé une personne de retour de l'étranger.
+À partir du 19 mars, les résidents du Québec en isolement ou en quarantaine qui ne sont couverts par aucune prestation peuvent demander 573 $ par semaine d'aide financière. Le gouvernement annonce également qu'il injecte 2,5 milliards de dollars dans les entreprises souffrant de problèmes de liquidité en raison de la crise Covid-19. Il demande également aux Québécois de ne pas voyager entre les régions. La Sûreté du Québec lance une opération spéciale dans l’ensemble de la province pour « sensibiliser » les citoyens au respect des directives de la Loi sur la santé publique. La Ville de Montréal annonce qu'elle prolonge son échéance fiscale et dévoile un fond d'urgence de 5 millions de dollars pour soutenir les petites et moyennes entreprises.
+Le 20 mars, le gouvernement du Québec interdit les rassemblements intérieurs et impose de maintenir une distance de deux mètres en tout temps lors des rassemblements extérieurs, avec certaines exceptions, dont entre les occupants d'une résidence privée.
+21 mars, fermeture des frontières avec les États-Unis.
+Le 22 mars, le gouvernement du Québec ordonne la fermeture, à compter de minuit, des centres commerciaux, des salles à manger des restaurants, des salons de coiffure et d’esthétique jusqu’au 1er mai, et prolonge la fermeture des écoles et des services de garde jusqu’à cette date. Quatre personnes habitant une résidence pour personnes âgées à Lavaltrie, dans Lanaudière, décèdent de la Covid-19. Un arrêté signé par la ministre de la Santé et des Services sociaux, Danielle McCann, permet au gouvernement de redéployer les fonctionnaires « dans une autre fonction ou dans un autre lieu, selon les besoins » pour s’assurer que le réseau ait les ressources humaines nécessaires dans les circonstances.
+Le 23 mars, le gouvernement québécois annonce la fermeture de toutes les entreprises et commerces non essentiels jusqu'au 13 avril, c'est le début du premier confinement. La SAQ et la SQDC sont dans la liste des commerces offrant un service essentiel, ce qui étonne certains observateurs, dont les syndicats des employés de ces sociétés d'État québécoises.
+Le Guide autosoins pour la maladie à coronavirus (COVID-19), qui donne les lignes directrices pour se protéger, se soigner ou soigner les autres, est lancé. Une version papier est distribuée par la poste aux Québécois au mois d'avril.
+Le 28 mars, le gouvernement du Québec annonce qu'il met en place des barrages routiers pour restreindre l'accès à 8 régions du Québec aux seuls services essentiels, à partir de 16 h le jour même. Obligation pour les pharmaciens de ne pas délivrer la chloroquine et l'hydroxychloroquine pour la Covid-19, ces médicaments étant réservés aux personnes atteintes de lupus érythémateux disséminé et d’arthrite juvénile idiopathique, ainsi qu'aux femmes enceintes à risque de rechute. Mise en quarantaine de la communauté juive hassidique de Kiryas Tosh, à Boisbriand, après que de nombreux membres de la communauté aient été testés positivement à la Covid-19.
+Le 29 mars, Québec annonce qu'il commande 300 000 visières à la compagnie Bauer pour approvisionner le personnel du réseau de la santé, et fournit une aide d’urgence de 133 millions de dollars aux institutions qui hébergent ou accueillent des personnes aînées ou des clientèles avec des besoins spécifiques. Un autre fabricant d'équipement de hockey au Québec, l’usine d’équipement de hockey d’élite de CCM à Saint-Jean-sur-Richelieu, a commencé à développer un prototype de masque 10 fois plus performant que les N95.
+Le 31 mars, François Legault annonce lors de sa conférence de presse que le Québec ne dispose que de trois à sept jours d'équipement de protection individuelle.
 Avril
-Le 1er avril, le gouvernement du Québec limite l’accès dans quatre nouvelles régions administratives du Québec: l’Outaouais, les Laurentides, Lanaudière et la Mauricie – Centre-du-Québec[105].
-Le 3 avril, le DPCP donne l'autorisation à la SQ et au SPVM d'émettre des contraventions sur-le-champ pour non-respect des consignes de distanciation[106].
-Le 5 avril, François Legault annonce que les entreprises et commerces non essentiels resteront fermés trois semaines de plus qu'annoncées, c'est-à-dire jusqu'au 4 mai Une plateforme numérique d'achat au Québec, Le Panier bleu, est également lancée[107]. Alors que de plus en plus de pays restreignent l'exportation de masques de protection, la compagnie AMD Medicom, basée à Pointe-Claire, ouvrira sa première usine de masques au Canada d'ici juillet 2020, qui fournira de 30 à 50 millions de masques par année au gouvernement fédéral[108].
-Le 8 avril, l'entreprise Médi-Sécur à Terrebonne annonce qu'elle produit des blouses de protection réutilisables et lavables[109].
-Le 9 avril, le premier ministre du Québec présente des statistiques du nombre de cas et de décès dans les CHSLD par rapport au reste de la population. 90 % des cas sont des personnes de plus de 70 ans[110].
-Le 10 avril, François Legault mentionne lors de son point de presse quotidien la possibilité que les écoles et les garderies rouvrent avant le 4 mai[111]. Il demande l'annulation jusqu'au 31 août de tous les événements culturels et sportifs, à l'exception des sports professionnels[112].
-Le 13 avril, il est annoncé lors du point de presse quotidien que certains secteurs de l'économie vont redémarrer au cours des prochains jours. Ainsi, il est prévu que les entreprises minières ainsi que les entreprises estivales (d'aménagement paysager, pépinières, centres de jardins et piscines) reprendront leurs activités à partir du mercredi 15 avril. Quant à lui, le secteur de la construction résidentielle pourra achever les projets domiciliaires prévus pour être livrés avant le 31 juillet 2020 à partir du lundi 20 avril[113].
-Le 15 avril, réouverture des entreprises minières et estivales[113]. Devant la pénurie de personnel dans les CHSLD, François Legault réclame l'aide des médecins spécialistes pour venir faire du travail de préposé aux bénéficiaires ou des infirmières[114].
-20 avril, reprise des projets de construction résidentielle[113].
+Le 1er avril, le gouvernement du Québec limite l’accès dans quatre nouvelles régions administratives du Québec: l’Outaouais, les Laurentides, Lanaudière et la Mauricie – Centre-du-Québec.
+Le 3 avril, le DPCP donne l'autorisation à la SQ et au SPVM d'émettre des contraventions sur-le-champ pour non-respect des consignes de distanciation.
+Le 5 avril, François Legault annonce que les entreprises et commerces non essentiels resteront fermés trois semaines de plus qu'annoncées, c'est-à-dire jusqu'au 4 mai Une plateforme numérique d'achat au Québec, Le Panier bleu, est également lancée. Alors que de plus en plus de pays restreignent l'exportation de masques de protection, la compagnie AMD Medicom, basée à Pointe-Claire, ouvrira sa première usine de masques au Canada d'ici juillet 2020, qui fournira de 30 à 50 millions de masques par année au gouvernement fédéral.
+Le 8 avril, l'entreprise Médi-Sécur à Terrebonne annonce qu'elle produit des blouses de protection réutilisables et lavables.
+Le 9 avril, le premier ministre du Québec présente des statistiques du nombre de cas et de décès dans les CHSLD par rapport au reste de la population. 90 % des cas sont des personnes de plus de 70 ans.
+Le 10 avril, François Legault mentionne lors de son point de presse quotidien la possibilité que les écoles et les garderies rouvrent avant le 4 mai. Il demande l'annulation jusqu'au 31 août de tous les événements culturels et sportifs, à l'exception des sports professionnels.
+Le 13 avril, il est annoncé lors du point de presse quotidien que certains secteurs de l'économie vont redémarrer au cours des prochains jours. Ainsi, il est prévu que les entreprises minières ainsi que les entreprises estivales (d'aménagement paysager, pépinières, centres de jardins et piscines) reprendront leurs activités à partir du mercredi 15 avril. Quant à lui, le secteur de la construction résidentielle pourra achever les projets domiciliaires prévus pour être livrés avant le 31 juillet 2020 à partir du lundi 20 avril.
+Le 15 avril, réouverture des entreprises minières et estivales. Devant la pénurie de personnel dans les CHSLD, François Legault réclame l'aide des médecins spécialistes pour venir faire du travail de préposé aux bénéficiaires ou des infirmières.
+20 avril, reprise des projets de construction résidentielle.
 Le 27 avril, le premier ministre du Québec annonce que, si la tendance se maintient, les garderies et écoles primaires de la province rouvriront le 11 mai pour toutes les régions à l'exception du Grand Montréal, où les écoles rouvriront huit jours plus tard le 19 mai
-[115].
-Le 28 avril, François Legault annonce un calendrier de reprise pour l'économie. Les magasins avec pignon sur rue pourront rouvrir le 4 mai, à l'exception de ceux de la grande région de Montréal qui le pourront une semaine plus tard, le 11 mai Les chantiers de construction et les usines, mais avec un maximum de 50 % de leur personnel, pourront rouvrir le 11 mai Les entreprises manufacturières pourront rouvrir le 25 mai Les centres commerciaux demeurent fermés, et les magasins non essentiels doivent être fermés le dimanche[116].
-Le 29 avril, la vice-première ministre du Québec, Geneviève Guilbault, remplace François Legault lors du point de presse quotidien. Elle annonce la levée progressive des contrôles routiers dans les différentes régions du Québec. Le 4 mai, les contrôles seront arrêtés dans les Laurentides, Lanaudière, Chaudière-Appalaches et à Rouyn-Noranda. La semaine suivante, le 11 mai, ce sont les contrôles de l’Outaouais (à l’exception de Gatineau), d’Abitibi, du Saguenay–Lac-Saint-Jean et de la ville de La Tuque qui seront retirés. Finalement le 18 mai, dans une troisième phase, l'accès sera libre pour le Bas-Saint-Laurent, la Gaspésie, les Îles-de-la-Madeleine, Charlevoix et la Côte-Nord. Aucune date n'est annoncée pour le Nord-du-Québec et la ville de Gatineau[117].
-Le 30 avril, François Legault admet que Montréal-Nord est la sous-région où il y a plus de cas et prévoit d'y ouvrir plus de cliniques  et augmenter les tests[118],[119] ,[120].
+.
+Le 28 avril, François Legault annonce un calendrier de reprise pour l'économie. Les magasins avec pignon sur rue pourront rouvrir le 4 mai, à l'exception de ceux de la grande région de Montréal qui le pourront une semaine plus tard, le 11 mai Les chantiers de construction et les usines, mais avec un maximum de 50 % de leur personnel, pourront rouvrir le 11 mai Les entreprises manufacturières pourront rouvrir le 25 mai Les centres commerciaux demeurent fermés, et les magasins non essentiels doivent être fermés le dimanche.
+Le 29 avril, la vice-première ministre du Québec, Geneviève Guilbault, remplace François Legault lors du point de presse quotidien. Elle annonce la levée progressive des contrôles routiers dans les différentes régions du Québec. Le 4 mai, les contrôles seront arrêtés dans les Laurentides, Lanaudière, Chaudière-Appalaches et à Rouyn-Noranda. La semaine suivante, le 11 mai, ce sont les contrôles de l’Outaouais (à l’exception de Gatineau), d’Abitibi, du Saguenay–Lac-Saint-Jean et de la ville de La Tuque qui seront retirés. Finalement le 18 mai, dans une troisième phase, l'accès sera libre pour le Bas-Saint-Laurent, la Gaspésie, les Îles-de-la-Madeleine, Charlevoix et la Côte-Nord. Aucune date n'est annoncée pour le Nord-du-Québec et la ville de Gatineau.
+Le 30 avril, François Legault admet que Montréal-Nord est la sous-région où il y a plus de cas et prévoit d'y ouvrir plus de cliniques  et augmenter les tests, ,.
 Mai
-Le 1er mai, une analyse effectuée par des économistes de l'Université de Montréal révèle que la prévalence de la Covid-19 serait bien plus importante que ce qui est officiellement rapporté. Au 22 avril, selon leurs estimations, le nombre réel d'infections serait de 256 130 au Québec, plus de 12 fois le nombre officiel[121]. Le même jour, Horacio Arruda annonce en ouverture du point de presse quotidien que toutes les personnes symptomatiques pourront avoir accès à un test de dépistage de la Covid-19, plus seulement les professionnels de la santé et les personnes hospitalisées. Legault annonce que le nombre de tests quotidiens passera de 6 000 à 14 000 dans les 7 prochains jours[122], bien que deux semaines plus tard, ce nombre ne sera que de 10 000 et redescendra même à 9 000[123]. Arruda indique qu'il y a lieu de croire que 3 % des Québécois ont déjà contracté la maladie, soit environ 250 000 personnes[122],[124].
-Le 3 mai, le ministère de la Santé explique que la forte hausse dans le nombre de cas confirmés, 2 209 cas pour les dernières 24 heures, est attribuable à un problème informatique qui avait omis de comptabiliser 1 317 cas détectés en avril[125].
-Le 4 mai, ouverture des magasins ayant pignon sur rue hors de la région du Grand Montréal, alors que l'ouverture de ceux hors de Montréal est reportée d'une semaine, passant du 11 mai au 18 mai[5]. Levée des barrages routiers pour les Laurentides, Lanaudière, Chaudière-Appalaches et à Rouyn-Noranda[117].
-Le 6 mai, la ministre de la Sécurité publique, Geneviève Guilbault, accorde la permission de sortie aux détenus qui ont commis un crime de faible gravité, dont la peine se termine dans moins de 30 jours ou qui sont vulnérables tels que les femmes enceintes, les personnes âgées de 65 ans et plus ou immunodéprimés sous recommandation du médecin. Ceux faisant partie d'un groupe criminel ou ayant commis des crimes violents ou graves sont exclus[126],[127]. Un premier foyer d'éclosion est constaté dans une garderie au Québec. La réouverture des garderies dans la région de Lanaudière, où se trouve le service de garde, est repoussée d'une semaine au 19 mai[128].
-Le 7 mai, François Legault annonce que la réouverture des commerces, écoles et garderie est repoussée du 18 au 25 mai, dans le meilleur des cas, pour le Grand Montréal[7].
-Le 11 mai, ouverture des garderies et des écoles primaires hors de Montréal, et réouverture des chantiers de construction[6].
-Levée des barrages routiers pour l’Outaouais (à l’exception de Gatineau), l’Abitibi, le Saguenay–Lac-Saint-Jean et la ville de La Tuque[117]. Le directeur national de santé publique Horacio Arruda tourne un vidéoclip avec Rod le Stod afin d'amasser des fonds pour le Refuge des jeunes de Montréal. Diffusé sur les réseaux sociaux, il soulève des critiques pour le ton léger de la vidéo[129], ainsi que pour certaines de ses paroles[130]. Il s'excuse de sa participation à cette danse le lendemain lors du point de presse quotidien[131].
-Le 12 mai, le trio Legault-McCann-Harruda arrive masqué au point de presse quotidien afin de faire la promotion de son port à l'extérieur du domicile[132].
-Le 14 mai, l'ouverture des écoles primaires pour le Grand Montréal est repoussée du 25 mai jusqu'à la rentrée scolaire en septembre[133]. L'ouverture des commerces pour cette région est toujours prévue pour le 25 mai, mais celle des garderies est repoussée jusqu'au 1er juin, mais celles-ci pourraient être repoussées si la situation ne s'améliore pas[134]. François Legault se rend pour la première fois en deux mois à Montréal, où il passe 24 heures et s'entretient avec différents responsables de la santé publique de la région[135].
-Le 18 mai, levée des barrages routiers pour le Bas-Saint-Laurent, la Gaspésie, les Îles-de-la-Madeleine, Charlevoix[117] et la ville de Gatineau[136].
-Le 20 mai, le gouvernement modifie les règles encadrant les rassemblements extérieurs[137]. À partir du vendredi 22 mai, le nombre de personnes qui peuvent se réunir dans un lieu privé extérieur, antérieurement sans restriction, est restreint à 10 personnes, mais celles-ci sont désormais tenues de maintenir une distance de 2 mètres entre elles dans la mesure du possible plutôt qu'en tout temps[138]. Bien que la vice-première ministre Geneviève Guilbault annonce en point de presse que les rassemblements sont limités à trois familles ou adresses différentes, le décret ministériel ne comporte pas cette limitation[139]. Les rassemblements à l'intérieur demeurent interdits[140]. En fin de journée, le gouvernement indique que les services de soins de santé (dentiste, psychologue, optométrie, etc.) pourront de nouveau être offerts à partir du 1er juin, sauf pour Montréal et la MRC de Joliette. Client et professionnels devront porter des mesures de protection, et le matériel devra être désinfecté après utilisation[141]. Un premier détenu décède de la Covid-19 au Québec. Il s'agit d'un homme de 72 ans qui était incarcéré à la prison de Bordeaux[142].
-Le 21 mai, Horacio Arruda annonce que les camps de jour pourront être ouverts pendant l'été, mais avec certaines restrictions, notamment sur le nombre d'enfants par moniteur[143].
-Le 22 mai, l'Institut de la statistique du Québec publie ses données préliminaires sur le nombre de personnes décédées au Québec depuis le début du confinement. La surmortalité de l'année 2020 (1 802 décès) par rapport à la moyenne des 3 années précédentes correspond, à peu de chose près, aux chiffres officiels du gouvernement du Québec pour les personnes décédées de la Covid-19 (1 918 décès)[144]. La ministre de la culture Nathalie Roy annonce que les musées, les bibliothèques et autres lieux culturels, y compris à Montréal, pourront rouvrir à partir du vendredi 29 mai Comme pour les magasins, certaines mesures devront être mises en place  avant de permettre l'ouverture[145].
-Le 25 mai, ouverture des commerces de détail à Montréal[7].
-Le 27 mai, lors du point de presse quotidien, il est annoncé que les terrains de camping, saisonnier et voyageur, pourront rouvrir dès le 1er juin. Les chalets pourront également être loués hors de la région de Montréal et de la MRC de Joliette[146]. Le gouvernement du Québec rend public un rapport des Forces armées canadiennes sur la situation dans les CHSLD où 1 050 militaires sont déployés. Le rapport, assez critique, liste plusieurs problèmes dans ces institutions, dont le manque d'équipement et le non-respect des protocoles[147]. François Legault demande à son homologue fédéral que le personnel militaire reste en soutien jusqu'au 15 septembre, une demande jugée non viable par le ministre de la Défense nationale, Harjit Sajjan[147].
-Le 28 mai, le gouvernement du Québec fournit des données indiquant que seulement 41 personnes ont été infectées par la Covid-19 depuis la réouverture des écoles hors de Montréal: 19 élèves et 22 membres du personnel. Ce nombre est considéré comme faible et que l'expérience de réouverture des écoles est positive[148]. La ministre de la Justice, Sonia LeBel, indique que les palais de justice seront prêts à rouvrir le 1er juin, en utilisant la technologie et des ajustements sur place[149].
-Le 29 mai, le ministre du Travail, de l'Emploi et de la Solidarité sociale, Jean Boulet, annonce que les coiffeurs et autres professionnels en soins corporels de la région de Montréal et de la MRC de Joliette pourront rouvrir le 15 juin[150].
-Le 30 mai, la Santé publique annonce dans un communiqué que les piscines et modules de jeu dans les parcs peuvent être rouverts. Ceci cause une certaine confusion car la gestion de ces infrastructures relève du domaine municipal, et non du niveau du Québec. Dans les jours suivants, les panneaux et autres signes d'interdiction ont été retirés des aires de jeu par les usagers, avant que les annonces soient faites dans les villes[151].
+Le 1er mai, une analyse effectuée par des économistes de l'Université de Montréal révèle que la prévalence de la Covid-19 serait bien plus importante que ce qui est officiellement rapporté. Au 22 avril, selon leurs estimations, le nombre réel d'infections serait de 256 130 au Québec, plus de 12 fois le nombre officiel. Le même jour, Horacio Arruda annonce en ouverture du point de presse quotidien que toutes les personnes symptomatiques pourront avoir accès à un test de dépistage de la Covid-19, plus seulement les professionnels de la santé et les personnes hospitalisées. Legault annonce que le nombre de tests quotidiens passera de 6 000 à 14 000 dans les 7 prochains jours, bien que deux semaines plus tard, ce nombre ne sera que de 10 000 et redescendra même à 9 000. Arruda indique qu'il y a lieu de croire que 3 % des Québécois ont déjà contracté la maladie, soit environ 250 000 personnes,.
+Le 3 mai, le ministère de la Santé explique que la forte hausse dans le nombre de cas confirmés, 2 209 cas pour les dernières 24 heures, est attribuable à un problème informatique qui avait omis de comptabiliser 1 317 cas détectés en avril.
+Le 4 mai, ouverture des magasins ayant pignon sur rue hors de la région du Grand Montréal, alors que l'ouverture de ceux hors de Montréal est reportée d'une semaine, passant du 11 mai au 18 mai. Levée des barrages routiers pour les Laurentides, Lanaudière, Chaudière-Appalaches et à Rouyn-Noranda.
+Le 6 mai, la ministre de la Sécurité publique, Geneviève Guilbault, accorde la permission de sortie aux détenus qui ont commis un crime de faible gravité, dont la peine se termine dans moins de 30 jours ou qui sont vulnérables tels que les femmes enceintes, les personnes âgées de 65 ans et plus ou immunodéprimés sous recommandation du médecin. Ceux faisant partie d'un groupe criminel ou ayant commis des crimes violents ou graves sont exclus,. Un premier foyer d'éclosion est constaté dans une garderie au Québec. La réouverture des garderies dans la région de Lanaudière, où se trouve le service de garde, est repoussée d'une semaine au 19 mai.
+Le 7 mai, François Legault annonce que la réouverture des commerces, écoles et garderie est repoussée du 18 au 25 mai, dans le meilleur des cas, pour le Grand Montréal.
+Le 11 mai, ouverture des garderies et des écoles primaires hors de Montréal, et réouverture des chantiers de construction.
+Levée des barrages routiers pour l’Outaouais (à l’exception de Gatineau), l’Abitibi, le Saguenay–Lac-Saint-Jean et la ville de La Tuque. Le directeur national de santé publique Horacio Arruda tourne un vidéoclip avec Rod le Stod afin d'amasser des fonds pour le Refuge des jeunes de Montréal. Diffusé sur les réseaux sociaux, il soulève des critiques pour le ton léger de la vidéo, ainsi que pour certaines de ses paroles. Il s'excuse de sa participation à cette danse le lendemain lors du point de presse quotidien.
+Le 12 mai, le trio Legault-McCann-Harruda arrive masqué au point de presse quotidien afin de faire la promotion de son port à l'extérieur du domicile.
+Le 14 mai, l'ouverture des écoles primaires pour le Grand Montréal est repoussée du 25 mai jusqu'à la rentrée scolaire en septembre. L'ouverture des commerces pour cette région est toujours prévue pour le 25 mai, mais celle des garderies est repoussée jusqu'au 1er juin, mais celles-ci pourraient être repoussées si la situation ne s'améliore pas. François Legault se rend pour la première fois en deux mois à Montréal, où il passe 24 heures et s'entretient avec différents responsables de la santé publique de la région.
+Le 18 mai, levée des barrages routiers pour le Bas-Saint-Laurent, la Gaspésie, les Îles-de-la-Madeleine, Charlevoix et la ville de Gatineau.
+Le 20 mai, le gouvernement modifie les règles encadrant les rassemblements extérieurs. À partir du vendredi 22 mai, le nombre de personnes qui peuvent se réunir dans un lieu privé extérieur, antérieurement sans restriction, est restreint à 10 personnes, mais celles-ci sont désormais tenues de maintenir une distance de 2 mètres entre elles dans la mesure du possible plutôt qu'en tout temps. Bien que la vice-première ministre Geneviève Guilbault annonce en point de presse que les rassemblements sont limités à trois familles ou adresses différentes, le décret ministériel ne comporte pas cette limitation. Les rassemblements à l'intérieur demeurent interdits. En fin de journée, le gouvernement indique que les services de soins de santé (dentiste, psychologue, optométrie, etc.) pourront de nouveau être offerts à partir du 1er juin, sauf pour Montréal et la MRC de Joliette. Client et professionnels devront porter des mesures de protection, et le matériel devra être désinfecté après utilisation. Un premier détenu décède de la Covid-19 au Québec. Il s'agit d'un homme de 72 ans qui était incarcéré à la prison de Bordeaux.
+Le 21 mai, Horacio Arruda annonce que les camps de jour pourront être ouverts pendant l'été, mais avec certaines restrictions, notamment sur le nombre d'enfants par moniteur.
+Le 22 mai, l'Institut de la statistique du Québec publie ses données préliminaires sur le nombre de personnes décédées au Québec depuis le début du confinement. La surmortalité de l'année 2020 (1 802 décès) par rapport à la moyenne des 3 années précédentes correspond, à peu de chose près, aux chiffres officiels du gouvernement du Québec pour les personnes décédées de la Covid-19 (1 918 décès). La ministre de la culture Nathalie Roy annonce que les musées, les bibliothèques et autres lieux culturels, y compris à Montréal, pourront rouvrir à partir du vendredi 29 mai Comme pour les magasins, certaines mesures devront être mises en place  avant de permettre l'ouverture.
+Le 25 mai, ouverture des commerces de détail à Montréal.
+Le 27 mai, lors du point de presse quotidien, il est annoncé que les terrains de camping, saisonnier et voyageur, pourront rouvrir dès le 1er juin. Les chalets pourront également être loués hors de la région de Montréal et de la MRC de Joliette. Le gouvernement du Québec rend public un rapport des Forces armées canadiennes sur la situation dans les CHSLD où 1 050 militaires sont déployés. Le rapport, assez critique, liste plusieurs problèmes dans ces institutions, dont le manque d'équipement et le non-respect des protocoles. François Legault demande à son homologue fédéral que le personnel militaire reste en soutien jusqu'au 15 septembre, une demande jugée non viable par le ministre de la Défense nationale, Harjit Sajjan.
+Le 28 mai, le gouvernement du Québec fournit des données indiquant que seulement 41 personnes ont été infectées par la Covid-19 depuis la réouverture des écoles hors de Montréal: 19 élèves et 22 membres du personnel. Ce nombre est considéré comme faible et que l'expérience de réouverture des écoles est positive. La ministre de la Justice, Sonia LeBel, indique que les palais de justice seront prêts à rouvrir le 1er juin, en utilisant la technologie et des ajustements sur place.
+Le 29 mai, le ministre du Travail, de l'Emploi et de la Solidarité sociale, Jean Boulet, annonce que les coiffeurs et autres professionnels en soins corporels de la région de Montréal et de la MRC de Joliette pourront rouvrir le 15 juin.
+Le 30 mai, la Santé publique annonce dans un communiqué que les piscines et modules de jeu dans les parcs peuvent être rouverts. Ceci cause une certaine confusion car la gestion de ces infrastructures relève du domaine municipal, et non du niveau du Québec. Dans les jours suivants, les panneaux et autres signes d'interdiction ont été retirés des aires de jeu par les usagers, avant que les annonces soient faites dans les villes.
 Juin
-Le 1er juin, ouverture des garderies à Montréal à 50 % de leur capacité[8], des centres commerciaux[9] et coiffeurs[152] hors Montréal. Levée des barrages routiers sur la Côte-Nord[153].
-La ministre de la Culture, Nathalie Roy, annonce des investissements de 400 millions sur deux ans en soutien à l'industrie culturelle québécoise[154]. Le sous-ministre à l'Éducation et à l'Enseignement supérieur a indiqué dans une lettre envoyée au réseau de l'éducation que des camps pédagogiques, d'une durée minimale de trois semaines, devront être offerts aux élèves en difficulté qui n'ont pas accès à des écoles. Cela implique les élèves du primaire de Montréal, de la MRC de Joliette et de la ville de L'Épiphanie, de même que tous les étudiants du secondaire du Québec. Ces camps devront débuter la semaine du 8 juin[155]. Cette mesure soulève plusieurs critiques dans le milieu de l'éducation, notamment pour sa trop courte période (trois semaines) et du peu de temps de préparation pour sa mise en place (une semaine)[156].
-Le 3 juin, le gouvernement Legault dépose un projet de loi omnibus, le projet de loi 61, pour faciliter la relance de l'économie québécoise. La Fédération des transporteurs par autobus (FTA) annonce que devant la baisse d'achalandage, les transporteurs interurbains qui en sont membres cessent le service interrégional. La FTA indique également qu'une aide gouvernementale permettrait une reprise plus rapide du service[157].
-Le 4 juin, la ministre déléguée à l’Éducation, Isabelle Charest, annonce que les entraînements sportifs extérieurs, comme le baseball et le soccer  pourront reprendre dès le 8 juin. Comme les consignes de distanciation physique devront être respectées, il s'agit de concours d'habilité ou encore d'entraînements, et non de matchs où les joueurs pourraient avoir des contacts[158].
-Sur la période du 5 juin au 6 juin, le Québec a moins de dix décès attribués à la Covid-19, le plus bas bilan quotidien depuis le 1er avril[159].
-Le 8 juin, reprise des activités sportives extérieures sans contact[158]. Le gouvernement annonce que les restaurants hors Montréal, pourront rouvrir à partir du 15 juin, et deux de Montréal, de la MRC de Joliette et de L'Épiphanie à partir du 22 juin. La distanciation physique et des normes sanitaires spéciales devront être respectées. Les rassemblements intérieurs dans les résidences privées seront également autorisés jusqu'à 10 personnes, à partir des mêmes dates et pour les mêmes régions[10]. La Fondation pour la défense des libertés du peuple intente un recours judiciaire contre le gouvernement du Québec et la Santé publique afin de faire suspendre certains articles de la Loi sur la santé publique. Selon eux, les décrets et arrêtés ministériels qui peuvent être adoptés dans le cadre de cette loi violent les libertés et les droits protégés par les chartes québécoise et canadienne[160].
-Le 9 juin, levée des barrages routiers dans le Nord-du-Québec[161].
-Le 11 juin, le gouvernement lance un programme de 750 millions pour soutenir l'industrie du tourisme au Québec[162].
-Le 12 juin, le gouvernement annonce que les centres commerciaux de Montréal de la MRC de Joliette pourront rouvrir le vendredi 19 juin. Les aires de restauration des centres commerciaux de l'extérieur de Montréal pourront rouvrir le 15 juin et ceux de Montréal le 22 juin[163]. Justin Trudeau annonce que les soldats des Forces armées canadiennes resteront déployés dans les CHSLD pendant encore au moins deux semaines[164]. Après ces deux semaines, 10 équipes de sept personnes des Forces seront disponibles pour les cas d'urgence, auxquelles s'ajoutent 900 membres de la Croix-Rouge canadienne, seront disponibles toute l'été pour prêter main forte dans la CHSLD[165]. Les médias révèlent que le directeur national de santé publique, Horacio Arruda, s'est absenté du 26 février au 8 mars pour un voyage au Maroc, où il a participé à un congrès et pris une semaine de vacances. L'opposition péquiste s'interroge sur sa désinvolture, le premier cas de Coronavirus ayant été identifié au Québec le 27 février, et sur la prise au sérieux de la crise sanitaire par le gouvernement qui a autorisé ce voyage[166].
-15 juin, ouverture des restaurants hors de Montréal[10] et des coiffeurs à Montréal et dans la MRC de Joliette[167]. Le gouvernement annonce que les rassemblements jusqu'à 50 personnes seront permis dans les lieux publics intérieurs, sauf les bars, à partir du 22 juin. La distance à respecter sera de 1,5 mètre dans les endroits où les gens sont assis et ne parlent pas, au lieu des 2 mètres qui sont requis dans tous les autres cas. La distance entre les enfants de moins de 16 ans, tous lieux confondus, passe à 1 mètre à partir du 22 juin[168], mesures qui ont soulevé plusieurs questions[169].
-Le 16 juin, le ministre de l'éducation Jean-François Roberge annonce que la rentrée scolaire de l'automne 2020 se fera en classe et que tous les élèves du primaire et du secondaire devront y retourner, alors qu'il souhaite la plus grande fréquentation possible des cégeps et universités. Un plan d'urgence, comprenant la livraison de matériel informatique, doit être mise en place dans chaque école. Les élèves du secondaire resteront dans la même classe et ce sera aux enseignants de se déplacer, à l'opposé de ce qui est habituellement pratiqué[170].
-Le 17 juin, la ministre déléguée à l’Éducation, Isabelle Charest, annonce la reprise des sports intérieurs, à l'exception des sports de combat, à compter du 22 juin. Les salles d'entraînement, piscines et plages publiques sont incluses dans cette définition[171].
-Le 18 juin, le ministre québécois des Transports, François Bonnardel, annonce dans un communiqué qu'une aide financière d'urgence de 400 millions sera octroyée aux sociétés de transport du Québec afin de venir en aide au transport collectif qui souffre d'un important manque à gagner en raison de la baisse d'achalandage[172]. La fin de la distanciation physique pour les enfants dans les garderies est annoncée par le ministre de la Famille, Mathieu Lacombe. Cette consigne s'applique aux groupes allant jusqu'à 10 enfants, ainsi qu'à leur éducatrice. À partir du 22 juin, les garderies hors de Montréal, de la MRC de Joliette et de L'Épiphanie pourront revenir à 100 % de leur capacité d'accueil. Pour Montréal, la MRC de Joliette et L'Épiphanie, ce retour s'effectuera le 13 juillet[173].
-19 juin, ouverture des centres commerciaux de Montréal et de la MRC de Joliette[163].
-Le 21 juin, la ministre du Tourisme, Caroline Proulx, annonce des mesures pour relancer le tourisme au Québec. D'un montant de 20 millions, inclus dans l'annonce du 11 juin[162], les mesures sont composées de forfaits nommés Explore Québec sur la route, permettant de découvrir les régions du Québec, de même qu'un programme Passeport, réduisant le coût d'accès aux installations touristiques tels que les parcs de la Sépaq[174].
-22 juin, reprise des activités sportives intérieures[171] et rassemblements intérieurs jusqu'à 50 personnes dans les endroits publics[168]. L'INSPQ ne déclaire aucun décès par la Covid-19 au Québec dans les dernières 24 heures, une première depuis le 22 mars[175],[note 1]. Le gouvernement Legault effectue un remaniement ministériel surprise, mutant Danielle McCann de la Santé à l'Éducation supérieure, un ministère créé de toutes pièces par la scission en deux du ministère de l'Éducation et de l'Enseignement supérieur. Ce changement est vu par plusieurs comme une rétrogradation pour McCann. Christian Dubé quitte le Conseil du trésor pour prendre la barre de la Santé, Sonia LeBel prenant le relais au Conseil du Trésor[176].
-24 juin, Fête nationale du Québec. Les rassemblements habituels sur les plaines d’Abraham à Québec et au Quartier des spectacles à Montréal sont annulés en raison de la Covid-19[177]. Le grand spectacle de la fête nationale est diffusé sur tous les réseaux de télévision public (TVA, Radio-Canada, Télé-Québec et V). Animé par Ariane Moffatt et Pierre Lapointe, il s'est tenu à l'Amphithéâtre Cogeco de Trois-Rivières, sans aucune assistance pour l'événement. Une foule d'artistes s'y produisent[178]. Exceptionnellement, il n'y avait aucun drapeau du Québec lors de la fête nationale, ce dont s'est excusé la présidente du Mouvement national des Québécois, Martine Desjardins, indiquant que les drapeaux étant habituellement distribués dans la foule, inexistante en raison de la pandémie de Covid-19, et donc pas de drapeaux[179].
-Le 25 juin, Horacio Arruda annonce le déconfinement de tous les secteurs, mis à part trois: les festivals et autres grands rassemblements, les camps de vacances (avec séjour) et les sports de combat. Tout ce qui était toujours fermé, dont les bars, peuvent rouvrir à partir de cette date[11]. Constatant une certaine stabilisation dans le nombre de nouveaux cas, et afin d'avoir des données plus stables, car cela peut prendre plusieurs jours avant de comptabiliser les cas, le gouvernement annonce que les bilans de la Covid-19 au Québec passeront de quotidien à hebdomadaire. Les chiffres seront annoncés les jeudis[11].
-Le 26 juin, devant les protestations, le gouvernement fait volte-face et le nouveau ministre de la Santé, Christian Dubé, annonce que les bilans resteront quotidiens, et reprendront le 26 juin[180]. Il n'y aura donc finalement que trois jours où il n'y aura pas de bilan quotidien (du 26 juin au 28 juin inclusivement).
-Le 30 juin, retour des bilans quotidiens[180]. François Legault annonce que le port du masque deviendra obligatoire dans les transports en commun dès le 13 juillet. La mesure sera obligatoire pour tous les usagers de 12 ans et plus, m</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le 1er juin, ouverture des garderies à Montréal à 50 % de leur capacité, des centres commerciaux et coiffeurs hors Montréal. Levée des barrages routiers sur la Côte-Nord.
+La ministre de la Culture, Nathalie Roy, annonce des investissements de 400 millions sur deux ans en soutien à l'industrie culturelle québécoise. Le sous-ministre à l'Éducation et à l'Enseignement supérieur a indiqué dans une lettre envoyée au réseau de l'éducation que des camps pédagogiques, d'une durée minimale de trois semaines, devront être offerts aux élèves en difficulté qui n'ont pas accès à des écoles. Cela implique les élèves du primaire de Montréal, de la MRC de Joliette et de la ville de L'Épiphanie, de même que tous les étudiants du secondaire du Québec. Ces camps devront débuter la semaine du 8 juin. Cette mesure soulève plusieurs critiques dans le milieu de l'éducation, notamment pour sa trop courte période (trois semaines) et du peu de temps de préparation pour sa mise en place (une semaine).
+Le 3 juin, le gouvernement Legault dépose un projet de loi omnibus, le projet de loi 61, pour faciliter la relance de l'économie québécoise. La Fédération des transporteurs par autobus (FTA) annonce que devant la baisse d'achalandage, les transporteurs interurbains qui en sont membres cessent le service interrégional. La FTA indique également qu'une aide gouvernementale permettrait une reprise plus rapide du service.
+Le 4 juin, la ministre déléguée à l’Éducation, Isabelle Charest, annonce que les entraînements sportifs extérieurs, comme le baseball et le soccer  pourront reprendre dès le 8 juin. Comme les consignes de distanciation physique devront être respectées, il s'agit de concours d'habilité ou encore d'entraînements, et non de matchs où les joueurs pourraient avoir des contacts.
+Sur la période du 5 juin au 6 juin, le Québec a moins de dix décès attribués à la Covid-19, le plus bas bilan quotidien depuis le 1er avril.
+Le 8 juin, reprise des activités sportives extérieures sans contact. Le gouvernement annonce que les restaurants hors Montréal, pourront rouvrir à partir du 15 juin, et deux de Montréal, de la MRC de Joliette et de L'Épiphanie à partir du 22 juin. La distanciation physique et des normes sanitaires spéciales devront être respectées. Les rassemblements intérieurs dans les résidences privées seront également autorisés jusqu'à 10 personnes, à partir des mêmes dates et pour les mêmes régions. La Fondation pour la défense des libertés du peuple intente un recours judiciaire contre le gouvernement du Québec et la Santé publique afin de faire suspendre certains articles de la Loi sur la santé publique. Selon eux, les décrets et arrêtés ministériels qui peuvent être adoptés dans le cadre de cette loi violent les libertés et les droits protégés par les chartes québécoise et canadienne.
+Le 9 juin, levée des barrages routiers dans le Nord-du-Québec.
+Le 11 juin, le gouvernement lance un programme de 750 millions pour soutenir l'industrie du tourisme au Québec.
+Le 12 juin, le gouvernement annonce que les centres commerciaux de Montréal de la MRC de Joliette pourront rouvrir le vendredi 19 juin. Les aires de restauration des centres commerciaux de l'extérieur de Montréal pourront rouvrir le 15 juin et ceux de Montréal le 22 juin. Justin Trudeau annonce que les soldats des Forces armées canadiennes resteront déployés dans les CHSLD pendant encore au moins deux semaines. Après ces deux semaines, 10 équipes de sept personnes des Forces seront disponibles pour les cas d'urgence, auxquelles s'ajoutent 900 membres de la Croix-Rouge canadienne, seront disponibles toute l'été pour prêter main forte dans la CHSLD. Les médias révèlent que le directeur national de santé publique, Horacio Arruda, s'est absenté du 26 février au 8 mars pour un voyage au Maroc, où il a participé à un congrès et pris une semaine de vacances. L'opposition péquiste s'interroge sur sa désinvolture, le premier cas de Coronavirus ayant été identifié au Québec le 27 février, et sur la prise au sérieux de la crise sanitaire par le gouvernement qui a autorisé ce voyage.
+15 juin, ouverture des restaurants hors de Montréal et des coiffeurs à Montréal et dans la MRC de Joliette. Le gouvernement annonce que les rassemblements jusqu'à 50 personnes seront permis dans les lieux publics intérieurs, sauf les bars, à partir du 22 juin. La distance à respecter sera de 1,5 mètre dans les endroits où les gens sont assis et ne parlent pas, au lieu des 2 mètres qui sont requis dans tous les autres cas. La distance entre les enfants de moins de 16 ans, tous lieux confondus, passe à 1 mètre à partir du 22 juin, mesures qui ont soulevé plusieurs questions.
+Le 16 juin, le ministre de l'éducation Jean-François Roberge annonce que la rentrée scolaire de l'automne 2020 se fera en classe et que tous les élèves du primaire et du secondaire devront y retourner, alors qu'il souhaite la plus grande fréquentation possible des cégeps et universités. Un plan d'urgence, comprenant la livraison de matériel informatique, doit être mise en place dans chaque école. Les élèves du secondaire resteront dans la même classe et ce sera aux enseignants de se déplacer, à l'opposé de ce qui est habituellement pratiqué.
+Le 17 juin, la ministre déléguée à l’Éducation, Isabelle Charest, annonce la reprise des sports intérieurs, à l'exception des sports de combat, à compter du 22 juin. Les salles d'entraînement, piscines et plages publiques sont incluses dans cette définition.
+Le 18 juin, le ministre québécois des Transports, François Bonnardel, annonce dans un communiqué qu'une aide financière d'urgence de 400 millions sera octroyée aux sociétés de transport du Québec afin de venir en aide au transport collectif qui souffre d'un important manque à gagner en raison de la baisse d'achalandage. La fin de la distanciation physique pour les enfants dans les garderies est annoncée par le ministre de la Famille, Mathieu Lacombe. Cette consigne s'applique aux groupes allant jusqu'à 10 enfants, ainsi qu'à leur éducatrice. À partir du 22 juin, les garderies hors de Montréal, de la MRC de Joliette et de L'Épiphanie pourront revenir à 100 % de leur capacité d'accueil. Pour Montréal, la MRC de Joliette et L'Épiphanie, ce retour s'effectuera le 13 juillet.
+19 juin, ouverture des centres commerciaux de Montréal et de la MRC de Joliette.
+Le 21 juin, la ministre du Tourisme, Caroline Proulx, annonce des mesures pour relancer le tourisme au Québec. D'un montant de 20 millions, inclus dans l'annonce du 11 juin, les mesures sont composées de forfaits nommés Explore Québec sur la route, permettant de découvrir les régions du Québec, de même qu'un programme Passeport, réduisant le coût d'accès aux installations touristiques tels que les parcs de la Sépaq.
+22 juin, reprise des activités sportives intérieures et rassemblements intérieurs jusqu'à 50 personnes dans les endroits publics. L'INSPQ ne déclaire aucun décès par la Covid-19 au Québec dans les dernières 24 heures, une première depuis le 22 mars,[note 1]. Le gouvernement Legault effectue un remaniement ministériel surprise, mutant Danielle McCann de la Santé à l'Éducation supérieure, un ministère créé de toutes pièces par la scission en deux du ministère de l'Éducation et de l'Enseignement supérieur. Ce changement est vu par plusieurs comme une rétrogradation pour McCann. Christian Dubé quitte le Conseil du trésor pour prendre la barre de la Santé, Sonia LeBel prenant le relais au Conseil du Trésor.
+24 juin, Fête nationale du Québec. Les rassemblements habituels sur les plaines d’Abraham à Québec et au Quartier des spectacles à Montréal sont annulés en raison de la Covid-19. Le grand spectacle de la fête nationale est diffusé sur tous les réseaux de télévision public (TVA, Radio-Canada, Télé-Québec et V). Animé par Ariane Moffatt et Pierre Lapointe, il s'est tenu à l'Amphithéâtre Cogeco de Trois-Rivières, sans aucune assistance pour l'événement. Une foule d'artistes s'y produisent. Exceptionnellement, il n'y avait aucun drapeau du Québec lors de la fête nationale, ce dont s'est excusé la présidente du Mouvement national des Québécois, Martine Desjardins, indiquant que les drapeaux étant habituellement distribués dans la foule, inexistante en raison de la pandémie de Covid-19, et donc pas de drapeaux.
+Le 25 juin, Horacio Arruda annonce le déconfinement de tous les secteurs, mis à part trois: les festivals et autres grands rassemblements, les camps de vacances (avec séjour) et les sports de combat. Tout ce qui était toujours fermé, dont les bars, peuvent rouvrir à partir de cette date. Constatant une certaine stabilisation dans le nombre de nouveaux cas, et afin d'avoir des données plus stables, car cela peut prendre plusieurs jours avant de comptabiliser les cas, le gouvernement annonce que les bilans de la Covid-19 au Québec passeront de quotidien à hebdomadaire. Les chiffres seront annoncés les jeudis.
+Le 26 juin, devant les protestations, le gouvernement fait volte-face et le nouveau ministre de la Santé, Christian Dubé, annonce que les bilans resteront quotidiens, et reprendront le 26 juin. Il n'y aura donc finalement que trois jours où il n'y aura pas de bilan quotidien (du 26 juin au 28 juin inclusivement).
+Le 30 juin, retour des bilans quotidiens. François Legault annonce que le port du masque deviendra obligatoire dans les transports en commun dès le 13 juillet. La mesure sera obligatoire pour tous les usagers de 12 ans et plus, mais elle est aussi fortement recommandée pour les plus jeunes, sauf pour ceux de moins de 2 ans. Il y aura une période de grâce de 14 jours, pendant laquelle les usagers sans masque pourront quand même accéder au transport, ce qui fait que la mesure ne sera effective que le 27 juillet.
+Juillet
+Le 1er juillet, est le jour de l'année où les ménages québécois déménagent habituellement. En raison de la pandémie de Covid-19, on constate que les déménagements sont étalés sur une plus longue période, allant jusqu'aux mois d'août et septembre. Le retard sur les chantiers de construction, qui ont été fermés pendant plusieurs semaines , expliquerait en partie ce phénomène.
+Le 5 juillet, des clients ayant fréquenté un bar du Quartier DIX30 à Brossard le 30 j</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janvier
-Le 4 janvier, le député libéral Pierre Arcand est sanctionné par son parti pour être parti en vacances dans les Antilles pendant le Temps des Fêtes[299].
-Le 6 janvier, le gouvernement repousse l'ouverture des magasins non-essentiels du 11 janvier au 8 février, annonce un couvre-feu de 20 h à 5 h, et une série d'autres mesures pour endiguer la deuxième vague[300].
-Le 9 janvier, début du couvre-feu à 20 h jusqu'au 8 février[19], et report d'une semaine de l'ouverture des écoles secondaires. La mise en place du couvre-feu fait diminuer de moitié le nombre de visites à domicile selon une étude de l'INSPQ[301] 
-Le 28 janvier, Orléans Express annonce la fin du service dans les régions du Québec à partir du 8 février, mis à part les trajets entre Montréal, Québec et Rimouski. Cette décision fait suite à la baisse de fréquentation observée, les autobus n'ayant parfois que deux ou trois passagers, sur les 24 qui sont permis[302].
-Février
-Le 2 février, le gouvernement repousse la fin du couvre-feu du 8 février au 22 février, tout en annonçant des mesures d'assouplissement[20].
-Le 8 février, réouverture des commerces non essentiels, centres commerciaux, salons de coiffure ainsi que lieux culturels (musées, bibliothèques)[303].
-Retour en zone orange pour l'Abitibi-Témiscamingue, le Saguenay-Lac-Saint-Jean, la Côte-Nord, la Gaspésie, le Bas-Saint-Laurent et le Nord-du-Québec[304]. Dans ces régions, le couvre-feu passe à 21 h 30, les restaurants peuvent recevoir des clients en zone orange, à condition de recevoir des « bulles familiales » composées de deux adultes et de leurs enfants. Les cinémas, salles de spectacles et salles de sport (gyms) peuvent accueillir des clients, sur rendez-vous et à condition de tenir un registre[305].
-La Cour supérieure du Québec rend son jugement sur la demande d'un groupe de parents qui tentent de forcer le gouvernement du Québec à offrir des cours en ligne, peu importe leur état de santé[306]. Ce groupe invoque l'article 7 de la Charte canadienne des droits et libertés protégeant le droit à la vie et à la sécurité, ce que la cour la rejette, indiquant que les mesures mises en place par « le gouvernement assure le respect de la mission de l’école »[307].
-Le 25 février 2021, ouverture des premiers rendez-vous, hors des résidences pour aînées, pour les Québécois. La vaccination est offerte aux Québécois de 85 ans et plus[308].
-Dès le 26 février 2021, afin de permettre plus d'activités pour les familles lors de la semaine de relâche, le gouvernement du Québec annonce des assouplissements aux mesures en place. Les cinémas du Québec pourront rouvrir, avec certaines mesures de distanciation et le port du masque. Le sport intérieur est permis pour deux personnes ou en bulle familiale. Il est également permis de faire des activités extérieures en groupe de huit personnes, alors que ce nombre était limité à quatre en zones rouges. Ces mesures continueront de s'appliquer après la fin de la semaine de relâche le 7 mars[309].
-Mars
-Le 7 mars, une manifestation a lieu dans la ville de Québec. Plus de 20 000 personnes réclament la reprise des sports[310].
-Le 8 mars, retour en zone orange pour la Capitale-Nationale, l'Estrie, la Mauricie, Chaudière-Appalaches et le Centre-du-Québec, le Grand Montréal reste en zone rouge[311].
-Le 11 mars, journée de commémoration nationale en mémoire des victimes de la Covid-19. Un an après que l'Organisation mondiale de la santé (OMS) ait décrété l'état d'urgence de pandémie mondiale[312],[313], la population du Québec est invitée à observer une minute de silence à 13 h, afin de commémorer la mort de plus de 10 000 Québécois du SARS-CoV-2[314],[315].
-Le 15 mars, retour des activités sportives au préscolaire, au primaire et au secondaire, en groupe-classe seulement[311].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4 janvier, le député libéral Pierre Arcand est sanctionné par son parti pour être parti en vacances dans les Antilles pendant le Temps des Fêtes.
+Le 6 janvier, le gouvernement repousse l'ouverture des magasins non-essentiels du 11 janvier au 8 février, annonce un couvre-feu de 20 h à 5 h, et une série d'autres mesures pour endiguer la deuxième vague.
+Le 9 janvier, début du couvre-feu à 20 h jusqu'au 8 février, et report d'une semaine de l'ouverture des écoles secondaires. La mise en place du couvre-feu fait diminuer de moitié le nombre de visites à domicile selon une étude de l'INSPQ 
+Le 28 janvier, Orléans Express annonce la fin du service dans les régions du Québec à partir du 8 février, mis à part les trajets entre Montréal, Québec et Rimouski. Cette décision fait suite à la baisse de fréquentation observée, les autobus n'ayant parfois que deux ou trois passagers, sur les 24 qui sont permis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2 février, le gouvernement repousse la fin du couvre-feu du 8 février au 22 février, tout en annonçant des mesures d'assouplissement.
+Le 8 février, réouverture des commerces non essentiels, centres commerciaux, salons de coiffure ainsi que lieux culturels (musées, bibliothèques).
+Retour en zone orange pour l'Abitibi-Témiscamingue, le Saguenay-Lac-Saint-Jean, la Côte-Nord, la Gaspésie, le Bas-Saint-Laurent et le Nord-du-Québec. Dans ces régions, le couvre-feu passe à 21 h 30, les restaurants peuvent recevoir des clients en zone orange, à condition de recevoir des « bulles familiales » composées de deux adultes et de leurs enfants. Les cinémas, salles de spectacles et salles de sport (gyms) peuvent accueillir des clients, sur rendez-vous et à condition de tenir un registre.
+La Cour supérieure du Québec rend son jugement sur la demande d'un groupe de parents qui tentent de forcer le gouvernement du Québec à offrir des cours en ligne, peu importe leur état de santé. Ce groupe invoque l'article 7 de la Charte canadienne des droits et libertés protégeant le droit à la vie et à la sécurité, ce que la cour la rejette, indiquant que les mesures mises en place par « le gouvernement assure le respect de la mission de l’école ».
+Le 25 février 2021, ouverture des premiers rendez-vous, hors des résidences pour aînées, pour les Québécois. La vaccination est offerte aux Québécois de 85 ans et plus.
+Dès le 26 février 2021, afin de permettre plus d'activités pour les familles lors de la semaine de relâche, le gouvernement du Québec annonce des assouplissements aux mesures en place. Les cinémas du Québec pourront rouvrir, avec certaines mesures de distanciation et le port du masque. Le sport intérieur est permis pour deux personnes ou en bulle familiale. Il est également permis de faire des activités extérieures en groupe de huit personnes, alors que ce nombre était limité à quatre en zones rouges. Ces mesures continueront de s'appliquer après la fin de la semaine de relâche le 7 mars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 mars, une manifestation a lieu dans la ville de Québec. Plus de 20 000 personnes réclament la reprise des sports.
+Le 8 mars, retour en zone orange pour la Capitale-Nationale, l'Estrie, la Mauricie, Chaudière-Appalaches et le Centre-du-Québec, le Grand Montréal reste en zone rouge.
+Le 11 mars, journée de commémoration nationale en mémoire des victimes de la Covid-19. Un an après que l'Organisation mondiale de la santé (OMS) ait décrété l'état d'urgence de pandémie mondiale la population du Québec est invitée à observer une minute de silence à 13 h, afin de commémorer la mort de plus de 10 000 Québécois du SARS-CoV-2,.
+Le 15 mars, retour des activités sportives au préscolaire, au primaire et au secondaire, en groupe-classe seulement.
 Le 17 mars, en zone rouge, le couvre-feu est repoussé de 20 h à 21 h 30
-[316]. François Legault indique dans son point de presse quotidien que tous les Québécois qui le désirent pourront être vaccinés avant le 24 juin 2021, jour de la Fête nationale du Québec[317].
-Le 22 mars, dans la zone jaune et orange, les élèves de secondaire 3, 4 et 5 retournent à l'école à temps-plein[318].
-Le 26 mars, fin du couvre-feu en zone jaune[319], en zone rouge, retour des gym[320] et des salles de spectacles[321],et retour en zone jaune pour la Gaspésie–Îles-de-la-Madeleine, la Côte-Nord et le Nord-du-Québec[321]. Les entraînements à l'intérieur se font soit individuellement, à deux ou avec des personnes de la même résidence. Les entraînements extérieurs se font à 8 personnes maximum qui proviennent de différentes adresses[322]. En zone orange, pour les activités intérieures, 8 personnes autorisées, et 12 personnes pour les activités à l'extérieur[323].
-Le 29 mars, en zone rouge, retour à l'école à temps-plein de tous les élèves de secondaire 3, 4 et 5[324].
-Le 29 mars, début de la « troisième vague »[325],[326].
-Avril
-Le 1er avril, à partir de 20 h, les régions de l'Outaouais, de la Capitale-Nationale, de Chaudière-Appalaches et du Bas-St-Laurent passent en zone rouge[327].
-Du 1er avril à partir de 20 h jusqu'au lundi 12 avril, les villes de Gatineau, de Québec et de Lévis passent en « pause »[328]. Dans ces trois villes, les commerces non-essentiels, les écoles, les théâtres, les cinémas, les musées, salons de coiffure, gym, etc. sont fermés[329]. Les lieux de cultes sont limités à 25 personnes. Le couvre-feu dans les villes de Gatineau, de Québec et de Lévis est à 20 h pour cette période[330],[331].
-Le 8 avril, en zone rouge, les gym sont fermés et le nombre maximum de personnes dans les lieux de cultes passent à 25[332]. En zone orange, la capacité maximum que peuvent accueillir les lieux de cultes passent de 250 à 100[333],[334].
-À la suite du point de presse du 8 avril, les mesures d'urgence dans la ville de Québec, de Lévis, de Gatineau et en Beauce[335] sont prolongés jusqu'au dimanche 18 avril inclusivement[336].
+. François Legault indique dans son point de presse quotidien que tous les Québécois qui le désirent pourront être vaccinés avant le 24 juin 2021, jour de la Fête nationale du Québec.
+Le 22 mars, dans la zone jaune et orange, les élèves de secondaire 3, 4 et 5 retournent à l'école à temps-plein.
+Le 26 mars, fin du couvre-feu en zone jaune, en zone rouge, retour des gym et des salles de spectacles,et retour en zone jaune pour la Gaspésie–Îles-de-la-Madeleine, la Côte-Nord et le Nord-du-Québec. Les entraînements à l'intérieur se font soit individuellement, à deux ou avec des personnes de la même résidence. Les entraînements extérieurs se font à 8 personnes maximum qui proviennent de différentes adresses. En zone orange, pour les activités intérieures, 8 personnes autorisées, et 12 personnes pour les activités à l'extérieur.
+Le 29 mars, en zone rouge, retour à l'école à temps-plein de tous les élèves de secondaire 3, 4 et 5.
+Le 29 mars, début de la « troisième vague »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er avril, à partir de 20 h, les régions de l'Outaouais, de la Capitale-Nationale, de Chaudière-Appalaches et du Bas-St-Laurent passent en zone rouge.
+Du 1er avril à partir de 20 h jusqu'au lundi 12 avril, les villes de Gatineau, de Québec et de Lévis passent en « pause ». Dans ces trois villes, les commerces non-essentiels, les écoles, les théâtres, les cinémas, les musées, salons de coiffure, gym, etc. sont fermés. Les lieux de cultes sont limités à 25 personnes. Le couvre-feu dans les villes de Gatineau, de Québec et de Lévis est à 20 h pour cette période,.
+Le 8 avril, en zone rouge, les gym sont fermés et le nombre maximum de personnes dans les lieux de cultes passent à 25. En zone orange, la capacité maximum que peuvent accueillir les lieux de cultes passent de 250 à 100,.
+À la suite du point de presse du 8 avril, les mesures d'urgence dans la ville de Québec, de Lévis, de Gatineau et en Beauce sont prolongés jusqu'au dimanche 18 avril inclusivement.
 Le 9 avril, nombre maximal de cas de la troisième vague (1 866 cas).
-Le 11 avril, le couvre-feu dans l'île de Montréal et à Laval passe de 21 h 30 à 20 h[337].
-Le 12 avril, en zone rouge, les élèves de secondaire 3, 4 et 5 retournent une journée sur deux à l'école, et les activités parascolaires sont annulés[338].
-À la suite du point de presse du 13 avril du premier ministre du Québec, François Legault, les « mesures spéciales » dans les régions de la Capitale-Nationale, de Chaudière-Appalaches et de l'Outaouais sont prolongées jusqu'au 25 avril inclusivement[339]. Dans la région de l'Outaouais et de Chaudière-Appalaches, les mesures spéciales sont appliqués dans toutes les villes de ces régions, à partir du 14 avril à 20 h[340]. François Legault annonce que le masque est obligatoire à l'extérieur[340].
-Le 14 avril, la région de la Côte-Nord passe de la zone jaune à la zone orange[341].
-Le 14 avril, François Legault annonce des assouplissements sur ses réseaux sociaux concernant le masque obligatoire à l'extérieur. Il ajoute que dans une situation où « on est certain de toujours rester à plus de deux mètres » comme le tennis, le golf ou être assis dans un parc, « il n’est pas nécessaire de porter le masque »[342].
-Le 20 avril, François Legault annonce que les mesures spéciales d'urgence dans les régions de l'Outaouais, de Chaudière-Appalaches et dans la Capitale-Nationale sont prolongées jusqu'au lundi 3 mai[343].
+Le 11 avril, le couvre-feu dans l'île de Montréal et à Laval passe de 21 h 30 à 20 h.
+Le 12 avril, en zone rouge, les élèves de secondaire 3, 4 et 5 retournent une journée sur deux à l'école, et les activités parascolaires sont annulés.
+À la suite du point de presse du 13 avril du premier ministre du Québec, François Legault, les « mesures spéciales » dans les régions de la Capitale-Nationale, de Chaudière-Appalaches et de l'Outaouais sont prolongées jusqu'au 25 avril inclusivement. Dans la région de l'Outaouais et de Chaudière-Appalaches, les mesures spéciales sont appliqués dans toutes les villes de ces régions, à partir du 14 avril à 20 h. François Legault annonce que le masque est obligatoire à l'extérieur.
+Le 14 avril, la région de la Côte-Nord passe de la zone jaune à la zone orange.
+Le 14 avril, François Legault annonce des assouplissements sur ses réseaux sociaux concernant le masque obligatoire à l'extérieur. Il ajoute que dans une situation où « on est certain de toujours rester à plus de deux mètres » comme le tennis, le golf ou être assis dans un parc, « il n’est pas nécessaire de porter le masque ».
+Le 20 avril, François Legault annonce que les mesures spéciales d'urgence dans les régions de l'Outaouais, de Chaudière-Appalaches et dans la Capitale-Nationale sont prolongées jusqu'au lundi 3 mai.
 Le 27 avril, les mesures spéciales d'urgence sont prolongées jusqu'au 9 mai.
-Mai
-Le 3 mai, le couvre-feu de l'île de Montréal et Laval passe de 20 h à 21 h 30[344]. Ce même jour, les écoles primaires dans la région de la Capitale-Nationale et dans Chaudière-Appalaches  —  sauf à Bellechasse et à Beauce ainsi qu'à Etchemin[345]  —  rouvrent.
-Le 5 mai à 20 h, la région du Granit en Estrie passe en mesures spéciales d'urgence[346]
-Le 10 mai, les élèves du secondaires retournent en classe dans la région de Québec, de Bellechasse, de Lévis et de Montmagny-L'Islet. Dans ces régions, le couvre-feu passe de 20 h à 21 h 30 et les commerces non essentiels rouvrent. L'Abitibi-Témiscamingue passe de la zone orange à la zone jaune. Les mesures spéciales d'urgence sont levées dans la Capitale-Nationale et dans plusieurs MRC de Chaudière-Appalaches  — sauf à les Etchemins, à Beauce-Sartigan et à Robert-Cliche (aujourd'hui Beauce-Centre)[347]. Ces régions passent en zone rouge. En Outaouais, la Vallée-de-la-Gatineau et à Papineau passent au palier rouge[346].
-Le 17 mai, la région de l'Outaouais et la MRC de Rimouski-Neigette dans le Bas-Saint-Laurent passent des mesures spéciales d'urgence à la zone rouge[348].
-Le 18 mai, le gouvernement Legault annonce un plan de déconfinement progressif[349].
-Le 20 mai, le ministre de la Santé et des Services sociaux, Christian Dubé, annonce le déroulement de la vaccination des 12 à 17 ans[352].
-Le 24 mai dans la soirée, les jeunes de 12 à 17 ans peuvent s'inscrire pour l'administration de la première dose sur le site de clicsanté[353].
-Le 25 mai, toutes les zones restantes en mesures spéciales d'urgence passent en zone rouge[354]. Ce même jour à 8 h, c'est le début de la vaccination des jeunes de 12 à 17 ans partout au Québec. Le premier ministre du Québec, François Legault, annonce pendant le point de point de presse de 13 h que les régions de la Montérégie, de la Capitale-Nationale, des Laurentides, de Lanaudière et de l'Outaouais passeront en zone orange à partir du 31 mai[355]. Certaines municipalités de comté resteront en zone rouge. François Legault ajoute aussi que l'île de Montréal et de Laval resteront en zone rouge pour une semaine de plus[356].
-Le 28 mai, fin du couvre-feu[350],[357].
-Juin
-Le 3 juin, il est annoncé, dans un communiqué du ministère de la Santé et des Services Sociaux (MSSS)[358], que le délai pour l'administration de la deuxième dose des vaccins ARNm (Moderna et Pfizer) « passera de 16 à 8 semaines ou plus pour obtenir une réponse immunitaire plus élevée, plus rapidement »[359]. Ce même jour, pendant le point de presse concernant la vaccination contre la Covid-19, Christian Dubé annonce les dates où les personnes pourront devancer leur rendez-vous[360]. À cette même date, le taux de vaccination, pour la première dose, atteint 75 % chez la population adulte, devançant de trois semaines l'objectif initialement fixé[361].
-Le 7 juin, la vaccination en milieu scolaire débute pour les jeunes de 12 à 17 ans partout à travers le Québec. Ce même jour, le ministre de l'Éducation, Jean-François Roberge, annonce sur Twitter que « En raison de la chaleur extrême [...] la Santé publique autorisera, dès [le 8 juin] et jusqu’à la fin de l’année [scolaire], les élèves à retirer leur masque lorsqu’ils sont en classe »[362],[363].
-Le 11 juin, reprise des sports extérieurs pour les groupes de 25 personnes au maximum[364].
-Le 15 juin, le Comité sur l’immunisation du Québec (CIQ) annonce que les Québécois ayant reçu une première dose du vaccin AstraZeneca peuvent maintenant choisir de recevoir en deuxième dose celui de Moderna ou de Pfizer-BioNTech[365].
-Le 22 juin, achèvement officiel de la construction du Centre de production de produits biologiques à Montréal[366]
-Le 25 juin, tournois sportifs et compétitions extérieures permises. En zone verte, les activités extérieures jusqu'à 50 personnes sont permises[364].
-Le 28 juin, toutes les régions passent au palier vert[26]. Gisèle Lévesque, première vaccinée contre la Covid-19 du Québec en décembre 2020[287], s'éteint de cause naturelle au CHSLD où elle résidait depuis mars 2020[367].
-Juillet
-Le 5 juillet, le ministre de la Santé Christian Dubé, craignant une éclosion causée par le variant Delta au mois de septembre, annonce que le délai de vaccination passe à 4 semaines. Cette directive est effective dès le lendemain[368].
-Le 25 juillet, le gouvernement du Québec ouvre les inscriptions d'une loterie vaccinale nommée « Gagner à être vacciné » dont les grandes lignes avaient été annoncées le 16 juillet. Ce concours, réservé aux personnes vaccinées contre la Covid-19, se veut incitatif et vise à augmenter le taux de vaccination au sein de la population[369].
-Août
-Le 1er août, la vente d'alcool est permise jusqu'à 1 h du matin et la limite du nombre de personnes pour les événements est rehaussée[28].
-Le 25 août, l'application VaxiCode disponible sur AppStore[370].
-Le 28 août, le délai d'isolement pour les cas positifs passe de 14 à 10 jours[29].
-Le 30 août, l'application VaxiCode disponible sur Android[371]
-Septembre
-Le 1er septembre, mise en place du passeport vaccinal[30].
-Le 30 septembre, 75 % de l'ensemble de la population du Québec est adéquatement vaccinée[1].
-Octobre
-Le 8 octobre, retour à la pleine capacité dans les salles de spectacle[31].
-Le 30 octobre est la date limite pour la vaccination des employés du gouvernement du Canada et des employés des secteurs sous réglementation fédérale[32]
-Novembre
-Le 1er novembre, la limite de capacité dans les bars et restaurants est levée[33].
-Le 9 novembre 2021, le gouvernement du Québec annonce qu'une « dose additionnelle » de vaccin est disponible pour certaines clientèles, à condition que six mois se soient écoulés depuis la deuxième dose[372].
-Le 15 novembre voit le retour de la danse et du karaoké dans les bars[34].
-Le 24 novembre, début de la vaccination du groupe d'âge 5 à 11 ans[35].
-Le 29 novembre, le premier cas du variant Omicron est détecté au Québec[36]
-Décembre
-Le 5 décembre, début de la 5e vague[37].
-Le 16 décembre, le gouvernement du Québec recommande l'administration d'une dose de rappel[373].
-Le 19 décembre, une manifestation d'environ 1 000 personnes a lieu à Montréal contre la troisième dose, appelée « l'autre booster », en particulier, et les mesures sanitaires en général[374].
-Le  20 décembre, le gouvernement annonce la fermeture des écoles primaires et secondaires, et le retour en classe est repoussé au 10 janvier 2022. Le gouvernement annonce également la fermeture des bars, gyms, cinémas et salles de spectacles[375]. Cette restriction ne s'applique pas aux musées ni aux bibliothèques[376].
-Le 26 décembre, pour faire face à la hausse causée par le variant Omicron, le gouvernement limite les rassemblements privés à 6 personnes[38].
-Le 30 décembre, la date de rentrée en classe est repoussée d'une autre semaine, la reportant au 10 janvier. Les enseignants devront donner des cours à distance, comme lors des fermetures précédentes[377].
-Le 31 décembre, un nouveau couvre-feu est mise en place de 22 h à 5 h du matin[39].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 mai, le couvre-feu de l'île de Montréal et Laval passe de 20 h à 21 h 30. Ce même jour, les écoles primaires dans la région de la Capitale-Nationale et dans Chaudière-Appalaches  —  sauf à Bellechasse et à Beauce ainsi qu'à Etchemin  —  rouvrent.
+Le 5 mai à 20 h, la région du Granit en Estrie passe en mesures spéciales d'urgence
+Le 10 mai, les élèves du secondaires retournent en classe dans la région de Québec, de Bellechasse, de Lévis et de Montmagny-L'Islet. Dans ces régions, le couvre-feu passe de 20 h à 21 h 30 et les commerces non essentiels rouvrent. L'Abitibi-Témiscamingue passe de la zone orange à la zone jaune. Les mesures spéciales d'urgence sont levées dans la Capitale-Nationale et dans plusieurs MRC de Chaudière-Appalaches  — sauf à les Etchemins, à Beauce-Sartigan et à Robert-Cliche (aujourd'hui Beauce-Centre). Ces régions passent en zone rouge. En Outaouais, la Vallée-de-la-Gatineau et à Papineau passent au palier rouge.
+Le 17 mai, la région de l'Outaouais et la MRC de Rimouski-Neigette dans le Bas-Saint-Laurent passent des mesures spéciales d'urgence à la zone rouge.
+Le 18 mai, le gouvernement Legault annonce un plan de déconfinement progressif.
+Le 20 mai, le ministre de la Santé et des Services sociaux, Christian Dubé, annonce le déroulement de la vaccination des 12 à 17 ans.
+Le 24 mai dans la soirée, les jeunes de 12 à 17 ans peuvent s'inscrire pour l'administration de la première dose sur le site de clicsanté.
+Le 25 mai, toutes les zones restantes en mesures spéciales d'urgence passent en zone rouge. Ce même jour à 8 h, c'est le début de la vaccination des jeunes de 12 à 17 ans partout au Québec. Le premier ministre du Québec, François Legault, annonce pendant le point de point de presse de 13 h que les régions de la Montérégie, de la Capitale-Nationale, des Laurentides, de Lanaudière et de l'Outaouais passeront en zone orange à partir du 31 mai. Certaines municipalités de comté resteront en zone rouge. François Legault ajoute aussi que l'île de Montréal et de Laval resteront en zone rouge pour une semaine de plus.
+Le 28 mai, fin du couvre-feu,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 juin, il est annoncé, dans un communiqué du ministère de la Santé et des Services Sociaux (MSSS), que le délai pour l'administration de la deuxième dose des vaccins ARNm (Moderna et Pfizer) « passera de 16 à 8 semaines ou plus pour obtenir une réponse immunitaire plus élevée, plus rapidement ». Ce même jour, pendant le point de presse concernant la vaccination contre la Covid-19, Christian Dubé annonce les dates où les personnes pourront devancer leur rendez-vous. À cette même date, le taux de vaccination, pour la première dose, atteint 75 % chez la population adulte, devançant de trois semaines l'objectif initialement fixé.
+Le 7 juin, la vaccination en milieu scolaire débute pour les jeunes de 12 à 17 ans partout à travers le Québec. Ce même jour, le ministre de l'Éducation, Jean-François Roberge, annonce sur Twitter que « En raison de la chaleur extrême [...] la Santé publique autorisera, dès [le 8 juin] et jusqu’à la fin de l’année [scolaire], les élèves à retirer leur masque lorsqu’ils sont en classe »,.
+Le 11 juin, reprise des sports extérieurs pour les groupes de 25 personnes au maximum.
+Le 15 juin, le Comité sur l’immunisation du Québec (CIQ) annonce que les Québécois ayant reçu une première dose du vaccin AstraZeneca peuvent maintenant choisir de recevoir en deuxième dose celui de Moderna ou de Pfizer-BioNTech.
+Le 22 juin, achèvement officiel de la construction du Centre de production de produits biologiques à Montréal
+Le 25 juin, tournois sportifs et compétitions extérieures permises. En zone verte, les activités extérieures jusqu'à 50 personnes sont permises.
+Le 28 juin, toutes les régions passent au palier vert. Gisèle Lévesque, première vaccinée contre la Covid-19 du Québec en décembre 2020, s'éteint de cause naturelle au CHSLD où elle résidait depuis mars 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 juillet, le ministre de la Santé Christian Dubé, craignant une éclosion causée par le variant Delta au mois de septembre, annonce que le délai de vaccination passe à 4 semaines. Cette directive est effective dès le lendemain.
+Le 25 juillet, le gouvernement du Québec ouvre les inscriptions d'une loterie vaccinale nommée « Gagner à être vacciné » dont les grandes lignes avaient été annoncées le 16 juillet. Ce concours, réservé aux personnes vaccinées contre la Covid-19, se veut incitatif et vise à augmenter le taux de vaccination au sein de la population.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er août, la vente d'alcool est permise jusqu'à 1 h du matin et la limite du nombre de personnes pour les événements est rehaussée.
+Le 25 août, l'application VaxiCode disponible sur AppStore.
+Le 28 août, le délai d'isolement pour les cas positifs passe de 14 à 10 jours.
+Le 30 août, l'application VaxiCode disponible sur Android
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er septembre, mise en place du passeport vaccinal.
+Le 30 septembre, 75 % de l'ensemble de la population du Québec est adéquatement vaccinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 8 octobre, retour à la pleine capacité dans les salles de spectacle.
+Le 30 octobre est la date limite pour la vaccination des employés du gouvernement du Canada et des employés des secteurs sous réglementation fédérale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er novembre, la limite de capacité dans les bars et restaurants est levée.
+Le 9 novembre 2021, le gouvernement du Québec annonce qu'une « dose additionnelle » de vaccin est disponible pour certaines clientèles, à condition que six mois se soient écoulés depuis la deuxième dose.
+Le 15 novembre voit le retour de la danse et du karaoké dans les bars.
+Le 24 novembre, début de la vaccination du groupe d'âge 5 à 11 ans.
+Le 29 novembre, le premier cas du variant Omicron est détecté au Québec
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 décembre, début de la 5e vague.
+Le 16 décembre, le gouvernement du Québec recommande l'administration d'une dose de rappel.
+Le 19 décembre, une manifestation d'environ 1 000 personnes a lieu à Montréal contre la troisième dose, appelée « l'autre booster », en particulier, et les mesures sanitaires en général.
+Le  20 décembre, le gouvernement annonce la fermeture des écoles primaires et secondaires, et le retour en classe est repoussé au 10 janvier 2022. Le gouvernement annonce également la fermeture des bars, gyms, cinémas et salles de spectacles. Cette restriction ne s'applique pas aux musées ni aux bibliothèques.
+Le 26 décembre, pour faire face à la hausse causée par le variant Omicron, le gouvernement limite les rassemblements privés à 6 personnes.
+Le 30 décembre, la date de rentrée en classe est repoussée d'une autre semaine, la reportant au 10 janvier. Les enseignants devront donner des cours à distance, comme lors des fermetures précédentes.
+Le 31 décembre, un nouveau couvre-feu est mise en place de 22 h à 5 h du matin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janvier
-Le 2 janvier, premier de trois dimanches de fermeture pour les magasins. Les pharmacies, les stations-service et les dépanneurs sont exemptés. La réouverture le dimanche est prévue pour le 23 janvier[378].
-Le 4 janvier, le nombre de jours en isolement obligatoire passe de 10 à 5 jours pour les personnes doublement vaccinées[379]. Des images d'influenceurs québécois sur le party dans un vol nolisé ne respectant pas les règles sanitaires et aérienne font le tour du pays.
-Le 5 janvier, devant la hausse fulgurante, et insoutenable à long terme, du nombre de tests de dépistage PCR, la Santé publique restreint son accessibilité à des groupes ciblés et dirige la population générale vers les autotests antigéniques (tests rapides)[380].
-Le 8 janvier, le Collège des médecins du Québec demande au gouvernement d'imposer plus rapidement des restrictions supplémentaires aux personnes non vaccinées. L'exigence du passeport vaccinal devrait couvrir un vaste ensemble de commerces et de lieux publics, selon le Collège des médecins[381].
-Le 10 janvier, Horacio Arruda, directeur national de santé publique, remet sa démission au premier ministre François Legault. Il est remplacé par le président-directeur général de l’Institut national en santé et services sociaux, Luc Boileau, qui assume les responsabilités du poste par intérim[40].
-Le 18 janvier, le passeport vaccinal devient obligatoire pour accéder aux succursales de la SAQ et de la SQDC[382].
-Le 21 janvier, une étude du Centre interuniversitaire de recherche en analyse des organisations estime que de 33 000 à 58 000 nouveaux cas de Covid-19 ont été enregistrés chaque jour au Québec dans les derniers jours, soit de cinq à huit fois plus que les 6 500 à 7 000 cas rapportés par les autorités dans les bilans quotidiens[383].
-Le 24 janvier, le passeport vaccinal est nécessaire pour les clients des magasins à grande surface (plus de 1 500 m2)[384], sauf pour les pharmacies et épiceries[385]. Cette exigence ne s'applique ni aux employés[386], ni aux entrepreneurs en construction dans les quincailleries[387].
-Le 25 janvier, le gouvernement du Québec annonce des allégements des mesures sanitaires pour les réunions à l'intérieur dans les résidences privées et dans les salles à manger. Le mot d'ordre de François Legault est « il faut y aller mollo »[388].
-Le 26 janvier, le gouvernement du Québec met en ligne un site web pour permettre l'autodéclaration des cas positifs aux autotests de dépistage[389].
-Le 27 janvier, première conférence de presse du directeur de la Santé publique sans élus. Depuis le début de la pandémie, les points de presse étaient conjoints, contrairement à l'usage dans les autres provinces du Canada[390].
-Le 28 janvier, des convois partant du Québec et des maritimes converge vers Montréal et partent tôt le lendemain matin en direction d'Ottawa pour prendre part au Convoi de la liberté. Sur le bord de certaines routes et sur certains viaducs le long du trajet, des gens se regroupent pour les appuyer[391].
-Le 31 janvier, réouverture des salles à manger des restaurants, possibilité de visiter des gens à domicile (2 bulles) et possibilité pour les jeunes de moins de 18 ans de faire des activités sportives à l'intérieur[392].
-Février
-Le 5 février, un convoi de manifestants arrive à Québec, calquant le Convoi de la liberté d'Ottawa ayant débuté une semaine plus tôt. Les autorités de la Ville de Québec ayant tiré des leçons du l'installation à long terme des manifestants à Ottawa, ont interdit l'accès aux poids lourds à certain endroit, et empêche les manifestants d'installer des camps[393],[394].
-Le 8 février, le gouvernement Legault annonce un plan de déconfinement en 5 dates pour le printemps[395].
-Le 9 février, Luc Boileau, directeur national de santé publique, révèle que 40 à 50 % des Québécois auraient contracté la maladie depuis le début de la pandémie, dont environ la moitié au cours de la seule cinquième vague[396]. Ces estimations sont considérablement plus élevées que les nombres de cas officiellement enregistrés, soit environ 440 000 au cours de la cinquième vague et 890 000 en tout[396]. Ces chiffres permettent d'estimer que 0,56 % des infectés québécois au variant Omicron sont hospitalisés et que 0,11 % en meurent[397].
-Le 24 février, on estime à 3 millions le nombre de Québécois ayant contracté la Covid-19 entre le mois de décembre 2021 et le 1er février 2022[398].
-Mars
-Le 30 mars, début de la 6e vague[41].
-Avril
-Le 1er avril, le Paxlovid peut désormais être prescrit par les pharmaciens 
-[399]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Maladies infectieuses/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2 janvier, premier de trois dimanches de fermeture pour les magasins. Les pharmacies, les stations-service et les dépanneurs sont exemptés. La réouverture le dimanche est prévue pour le 23 janvier.
+Le 4 janvier, le nombre de jours en isolement obligatoire passe de 10 à 5 jours pour les personnes doublement vaccinées. Des images d'influenceurs québécois sur le party dans un vol nolisé ne respectant pas les règles sanitaires et aérienne font le tour du pays.
+Le 5 janvier, devant la hausse fulgurante, et insoutenable à long terme, du nombre de tests de dépistage PCR, la Santé publique restreint son accessibilité à des groupes ciblés et dirige la population générale vers les autotests antigéniques (tests rapides).
+Le 8 janvier, le Collège des médecins du Québec demande au gouvernement d'imposer plus rapidement des restrictions supplémentaires aux personnes non vaccinées. L'exigence du passeport vaccinal devrait couvrir un vaste ensemble de commerces et de lieux publics, selon le Collège des médecins.
+Le 10 janvier, Horacio Arruda, directeur national de santé publique, remet sa démission au premier ministre François Legault. Il est remplacé par le président-directeur général de l’Institut national en santé et services sociaux, Luc Boileau, qui assume les responsabilités du poste par intérim.
+Le 18 janvier, le passeport vaccinal devient obligatoire pour accéder aux succursales de la SAQ et de la SQDC.
+Le 21 janvier, une étude du Centre interuniversitaire de recherche en analyse des organisations estime que de 33 000 à 58 000 nouveaux cas de Covid-19 ont été enregistrés chaque jour au Québec dans les derniers jours, soit de cinq à huit fois plus que les 6 500 à 7 000 cas rapportés par les autorités dans les bilans quotidiens.
+Le 24 janvier, le passeport vaccinal est nécessaire pour les clients des magasins à grande surface (plus de 1 500 m2), sauf pour les pharmacies et épiceries. Cette exigence ne s'applique ni aux employés, ni aux entrepreneurs en construction dans les quincailleries.
+Le 25 janvier, le gouvernement du Québec annonce des allégements des mesures sanitaires pour les réunions à l'intérieur dans les résidences privées et dans les salles à manger. Le mot d'ordre de François Legault est « il faut y aller mollo ».
+Le 26 janvier, le gouvernement du Québec met en ligne un site web pour permettre l'autodéclaration des cas positifs aux autotests de dépistage.
+Le 27 janvier, première conférence de presse du directeur de la Santé publique sans élus. Depuis le début de la pandémie, les points de presse étaient conjoints, contrairement à l'usage dans les autres provinces du Canada.
+Le 28 janvier, des convois partant du Québec et des maritimes converge vers Montréal et partent tôt le lendemain matin en direction d'Ottawa pour prendre part au Convoi de la liberté. Sur le bord de certaines routes et sur certains viaducs le long du trajet, des gens se regroupent pour les appuyer.
+Le 31 janvier, réouverture des salles à manger des restaurants, possibilité de visiter des gens à domicile (2 bulles) et possibilité pour les jeunes de moins de 18 ans de faire des activités sportives à l'intérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 février, un convoi de manifestants arrive à Québec, calquant le Convoi de la liberté d'Ottawa ayant débuté une semaine plus tôt. Les autorités de la Ville de Québec ayant tiré des leçons du l'installation à long terme des manifestants à Ottawa, ont interdit l'accès aux poids lourds à certain endroit, et empêche les manifestants d'installer des camps,.
+Le 8 février, le gouvernement Legault annonce un plan de déconfinement en 5 dates pour le printemps.
+Le 9 février, Luc Boileau, directeur national de santé publique, révèle que 40 à 50 % des Québécois auraient contracté la maladie depuis le début de la pandémie, dont environ la moitié au cours de la seule cinquième vague. Ces estimations sont considérablement plus élevées que les nombres de cas officiellement enregistrés, soit environ 440 000 au cours de la cinquième vague et 890 000 en tout. Ces chiffres permettent d'estimer que 0,56 % des infectés québécois au variant Omicron sont hospitalisés et que 0,11 % en meurent.
+Le 24 février, on estime à 3 millions le nombre de Québécois ayant contracté la Covid-19 entre le mois de décembre 2021 et le 1er février 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 mars, début de la 6e vague.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er avril, le Paxlovid peut désormais être prescrit par les pharmaciens 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Dates de début et fin des mesures</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mesures décrites dans ces tableaux s'appliquent au Québec dans son ensemble, avec les précisions géographiques qu'on y trouve, et couvrent la période du 13 mars au 7 septembre 2020. À partir du 8 septembre 2020, le gouvernement du Québec met en place des mesures qui s'appliquent aux régions administratives du Québec et qui sont décrites par le système d’alertes et d’interventions régionales.
-Fermeture et de réouverture d'établissements
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dates de début et fin des mesures</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fermeture et de réouverture d'établissements</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ Sauf indication contraire, toutes les dates sont en 2020 et concernent le territoire du Québec en entier.
 ↑ La date de réouverture est celle où il est légalement permis de le faire, et non pas celle à laquelle les réouvertures seront effectives. Par exemple, les piscines sont de juridiction municipale, alors que la date de réouverture possible a été choisie par le gouvernement du Québec. Cette date est également celle où il est possible de se rendre dans ce lieu, qu'il y ait ou non des mesures qui ne sont pas normalement en place, comme la distanciation physique ou encore la diminution de la fréquentation maximale.
 ↑ Aménagement paysager, pépinières, centres de jardins et piscines
 ↑ À l'exception des snowbirds de retour des États-Unis et qui n'ont pas d'autres options de logement au Québec.
-Mesures prophylactiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chronologie_de_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Dates de début et fin des mesures</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mesures prophylactiques</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ Sauf indication contraire, toutes les dates sont en 2020
 ↑ Le gouvernement du Québec conservent certains pouvoirs extraordinaires jusqu’au 31 décembre 2022
 ↑ a et b Seulement pour les personnes doublement vaccinées.
